--- a/title_author_uni_country_sql.xlsx
+++ b/title_author_uni_country_sql.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFADCA6B-588F-C94B-8ED4-AD7FA3B04796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AC517D-1D0A-2243-9DDD-F9CC42691BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="1730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6534" uniqueCount="1726">
   <si>
     <t>Workflow: A Language for Composing Web Services</t>
   </si>
@@ -4666,10 +4666,6 @@
     <t>Process and service composition, cross-organisational process support, formal models in business process management</t>
   </si>
   <si>
-    <t>Business process modeling and analysis, processes and
-service composition</t>
-  </si>
-  <si>
     <t>Process Equivalence, Petri Nets, Process Mining</t>
   </si>
   <si>
@@ -4694,10 +4690,6 @@
     <t>Security in business processes, Business process modeling and analysis</t>
   </si>
   <si>
-    <t>Banking industry, business process modeling, customer centricity,
-customer orientation, customer process</t>
-  </si>
-  <si>
     <t>Business Process Management, Workflow, Task Assignment, Swarm Intelligence</t>
   </si>
   <si>
@@ -4728,33 +4720,15 @@
     <t>business process modeling, process-enhanced groupware, end-user development, agile workflow, computer supported cooperative work</t>
   </si>
   <si>
-    <t>Workflow graph parsing, Control flow, Model decomposition, BPMN to BPEL translation/ roundtripping, Subprocess detection, Graph theor</t>
-  </si>
-  <si>
     <t>process modeling and analysis, SOA, Petri nets, operating guidelines.</t>
   </si>
   <si>
-    <t>Choreographies, graph correction, correction of services,
-verification of services, service automata, operating guidelines, BPEL</t>
-  </si>
-  <si>
-    <t>Coupling, object life cycle, object-centric and data-driven
-processes, state machines</t>
-  </si>
-  <si>
     <t>Scientific Workflow, Temporal Constraints, Temporal Constraint Setting, Probabilistic Strategy</t>
   </si>
   <si>
-    <t>Scientific Workflow, Temporal Constraints, Temporal Constraint
-Setting, Probabilistic Strategy</t>
-  </si>
-  <si>
     <t>process change management, process model differences</t>
   </si>
   <si>
-    <t>business process modeling, directed acyclic graphs, seriesparallel reductions, and process algebra</t>
-  </si>
-  <si>
     <t>Static process analysis</t>
   </si>
   <si>
@@ -4767,10 +4741,6 @@
     <t>Business Process Management, Business Artifacts, Business Entities, Business Design, Business Architecture, Service-Oriented Architecture</t>
   </si>
   <si>
-    <t>Adoption and Practice of BPM, Business Process Modeling, BPM
-maturity, Empirical Study</t>
-  </si>
-  <si>
     <t>Design skills, process modeling, design quality, experiment</t>
   </si>
   <si>
@@ -4855,9 +4825,6 @@
     <t>Model patterns, Pattern mining, Crowdsourcing, Mashups</t>
   </si>
   <si>
-    <t>ProcessMining, Recommender Systems, Algorithm Selection</t>
-  </si>
-  <si>
     <t>BPM, process similarity, process model matching</t>
   </si>
   <si>
@@ -4870,10 +4837,6 @@
     <t>Business Process Management Capabilities, Process Improvement, Value-based Decision-Making</t>
   </si>
   <si>
-    <t>Workflow Weaving, Implicit BPM, Distributed Platform,
-Aspect-Orientation, MVC Architecture</t>
-  </si>
-  <si>
     <t>Process Modeling Language Extension, Business Process Compliance, Process Audits, BPMN extensibility mechanism, Empirical BPM research</t>
   </si>
   <si>
@@ -4883,9 +4846,6 @@
     <t>Process redesign, Process innovation, Improvement principles, Controlled experiment, RePro</t>
   </si>
   <si>
-    <t>Business process management, Deviance, Process decisionmaking,Process performance management, Stochastic processes</t>
-  </si>
-  <si>
     <t>Business process modelling, BPMN, RECATNets, Conditional rewriting logic, Maude language and tool</t>
   </si>
   <si>
@@ -4913,43 +4873,9 @@
     <t>Process mining , Database , Redo log , Historical data , Trace creation , Transitive relations , Data model</t>
   </si>
   <si>
-    <t>Business process management, Process innovation,
-Digital innovation , Digital transformation , Critical success factor,
-Adoption , Expert panel</t>
-  </si>
-  <si>
-    <t>Business process management , Leadership,
-Public-sector organizations , Developing countries , Actor-network theory,
-Complexity leadership theory , Case study</t>
-  </si>
-  <si>
-    <t>Business process management , Long tail of business processes,
-Management framework , Decentralization</t>
-  </si>
-  <si>
-    <t>Compliance management life-cycle , Business process compliance,
-Digitization</t>
-  </si>
-  <si>
-    <t>Big data analytics , Process innovation capabilities,
-fsQCA , Resource-based view , Contingency theory</t>
-  </si>
-  <si>
-    <t>BPM methods , Context awareness , Assessment scheme,
-Literature review</t>
-  </si>
-  <si>
-    <t>Process forecasting , Proactive business process management,
-Predictive business process management</t>
-  </si>
-  <si>
     <t>Test-driven modelling , Abstraction , Declarative DCR graphs</t>
   </si>
   <si>
-    <t>Process mining , Declarative processes , Temporal logics
-Separation theorem , Automata theory</t>
-  </si>
-  <si>
     <t>Process mining , Performance analysis , Visual analytics</t>
   </si>
   <si>
@@ -4959,11 +4885,6 @@
     <t>Conformance checking , Online processing, Behavioural patterns , Stream processing , Petri nets , Unfoldings</t>
   </si>
   <si>
-    <t>Business process management , Anomaly detection, 
-Artificial process intelligence , Deep learning
-Recurrent neural networks</t>
-  </si>
-  <si>
     <t>Knowledge discovery , Process discovery, Trace clustering , Process mining , Business process intelligence</t>
   </si>
   <si>
@@ -5033,15 +4954,6 @@
     <t>Process individualization , Design patterns , Process design , Digital technologies</t>
   </si>
   <si>
-    <t>Declarative process models , Temporal logics , Process
-mining , Probabilistic process monitoring , Probabilistic conformance
-checking</t>
-  </si>
-  <si>
-    <t>Inter-organizational business processes , Incentive
-alignment , Collaboration , Choreography</t>
-  </si>
-  <si>
     <t>Process mining , Privacy-preserving data publishing , Privacy-preserving data mining</t>
   </si>
   <si>
@@ -5051,90 +4963,15 @@
     <t>Effect measurement , Process discovery , Healthcare , Patterns</t>
   </si>
   <si>
-    <t>Online process mining , Concept drift , Sensor event
-stream , Root cause analysis , Time sequence , Dynamic Time Warping</t>
-  </si>
-  <si>
-    <t>Process mining , Stochastic model , Conformance
-checking</t>
-  </si>
-  <si>
     <t>Machine learning , Business process monitoring , Prediction , Adaptation , Accuracy , Earliness</t>
   </si>
   <si>
-    <t>Process mining , Computer vision , Unsupervised
-learning , Industry 4.0</t>
-  </si>
-  <si>
-    <t>Process mining , Computer vision , Unsupervised
-learning , Industry 4.1</t>
-  </si>
-  <si>
-    <t>Process mining , Computer vision , Unsupervised
-learning , Industry 4.2</t>
-  </si>
-  <si>
     <t>Process Mining , Event log , Data quality , Timestamps , Data quality assessment</t>
   </si>
   <si>
-    <t>Explorative BPM , Process design , Value generation , Revenue
-resilience</t>
-  </si>
-  <si>
-    <t>Business process , Business process management , Maturity model ,
-Systematic literature review , Publication outlets , Transparency , Replicability</t>
-  </si>
-  <si>
-    <t>Business Process Management , Process improvement ,
-Stakeholders , Stakeholder-Groups , Stakeholder engagement , Stakeholder
-identification , Framework</t>
-  </si>
-  <si>
-    <t>Business process management , Strategic alignment , BP-IT
-alignment , SMEs , Design science , Gamification , Game-based learning</t>
-  </si>
-  <si>
-    <t>Process model understandability , Declarative process
-models , Model quality , Personal construct psychology , Repertory
-Grid</t>
-  </si>
-  <si>
-    <t>Digital process innovation , Intelligent robots , Acceptance ,
-Dilemma analysis</t>
-  </si>
-  <si>
-    <t>Robotic Process Automation , Governance , RPA
-maintenance , Federated organizational model , RPA Center of
-Excellence</t>
-  </si>
-  <si>
-    <t>Robotic process automation , Implementation
-framework , Interview study</t>
-  </si>
-  <si>
-    <t>Multi perspective supply chain analytics , Food supply chains ,
-Process and data analytics</t>
-  </si>
-  <si>
     <t>Process mining , Event log generation , Case study , Healthcare</t>
   </si>
   <si>
-    <t>Process mining , Binary classification , Negative
-examples , Labelled event logs</t>
-  </si>
-  <si>
-    <t>Process mining , Discovery , Uncertainty &amp; sensitivity
-analysis</t>
-  </si>
-  <si>
-    <t>Business process , Event prediction , Incremental
-learning , Neural networks , Dynamic Bayesian Network</t>
-  </si>
-  <si>
-    <t>Process mining , Remaining time prediction , Bayesian
-neural networks , Concrete dropout , Uncertainty , Heteroscedasticity , Convolutional neural networks , Long short-term memory models</t>
-  </si>
-  <si>
     <t>DCR graphs , Subprocesses , Action refinement , Decomposition</t>
   </si>
   <si>
@@ -5144,40 +4981,15 @@
     <t>Process discovery , Fuzzy clustering , Process variant</t>
   </si>
   <si>
-    <t>Conformance checking , Alignments , Data-aware
-declarative models , Multi-perspective process mining , Automated
-planning</t>
-  </si>
-  <si>
-    <t>Business process analysis , User interaction log , Robotic
-process automation</t>
-  </si>
-  <si>
-    <t>Robotic process automation , Artificial intelligence , Symbolic
-RPA , Intelligent RPA , Challenges</t>
-  </si>
-  <si>
-    <t>Blockchain , Process mining , Case study , Process
-discovery , Conformance checking , Ethereum</t>
-  </si>
-  <si>
     <t>Predictive process analytics , Representation learning , Multi-view learning</t>
   </si>
   <si>
     <t>Workforce analytics , Resource groups , Process mining , Event logs , Visual analytics</t>
   </si>
   <si>
-    <t>Process science , Data science , Process mining , Concept
-drift detection</t>
-  </si>
-  <si>
     <t>Process mining , Concept drift , Cause-effect analysis</t>
   </si>
   <si>
-    <t>Digital innovation , Digital innovation process , Process
-innovation , Public university , Case study</t>
-  </si>
-  <si>
     <t>Process improvement , Stakeholder engagement , Stakeholder theory , Case study , Robotic Process Automation , RPA , Organizational change</t>
   </si>
   <si>
@@ -5271,12 +5083,137 @@
     <t>keywords_dummi</t>
   </si>
   <si>
-    <t>Business process modeling and analysis,Formal models
-in business process management,Process patterns,Process verification
+    <t>BPM Governance and Compliance, Management Issues and Empirical Studies, Non-traditional BPM Scenarios</t>
+  </si>
+  <si>
+    <t>Conformance checking , Alignments , Data-aware declarative models , Multi-perspective process mining , Automated planning</t>
+  </si>
+  <si>
+    <t>Business process analysis , User interaction log , Robotic process automation</t>
+  </si>
+  <si>
+    <t>Robotic process automation , Artificial intelligence , Symbolic RPA , Intelligent RPA , Challenges</t>
+  </si>
+  <si>
+    <t>Blockchain , Process mining , Case study , Process discovery , Conformance checking , Ethereum</t>
+  </si>
+  <si>
+    <t>Process science , Data science , Process mining , Concept drift detection</t>
+  </si>
+  <si>
+    <t>Digital innovation , Digital innovation process , Process innovation , Public university , Case study</t>
+  </si>
+  <si>
+    <t>Process mining , Remaining time prediction , Bayesian neural networks , Concrete dropout , Uncertainty , Heteroscedasticity , Convolutional neural networks , Long short-term memory models</t>
+  </si>
+  <si>
+    <t>Business process , Event prediction , Incremental learning , Neural networks , Dynamic Bayesian Network</t>
+  </si>
+  <si>
+    <t>Process mining , Discovery , Uncertainty &amp; sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Process mining , Binary classification , Negative examples , Labelled event logs</t>
+  </si>
+  <si>
+    <t>Multi perspective supply chain analytics , Food supply chains , Process and data analytics</t>
+  </si>
+  <si>
+    <t>Robotic process automation , Implementation framework , Interview study</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation , Governance , RPA maintenance , Federated organizational model , RPA Center of Excellence</t>
+  </si>
+  <si>
+    <t>Digital process innovation , Intelligent robots , Acceptance ,Dilemma analysis</t>
+  </si>
+  <si>
+    <t>Process model understandability , Declarative process models , Model quality , Personal construct psychology , Repertory Grid</t>
+  </si>
+  <si>
+    <t>Business process management , Strategic alignment , BP-IT alignment , SMEs , Design science , Gamification , Game-based learning</t>
+  </si>
+  <si>
+    <t>Business Process Management , Process improvement , Stakeholders , Stakeholder-Groups , Stakeholder engagement , Stakeholder identification , Framework</t>
+  </si>
+  <si>
+    <t>Business process , Business process management , Maturity model , Systematic literature review , Publication outlets , Transparency , Replicability</t>
+  </si>
+  <si>
+    <t>Explorative BPM , Process design , Value generation , Revenue resilience</t>
+  </si>
+  <si>
+    <t>Process mining , Computer vision , Unsupervised learning , Industry 4.0</t>
+  </si>
+  <si>
+    <t>Process mining , Stochastic model , Conformance checking</t>
+  </si>
+  <si>
+    <t>Online process mining , Concept drift , Sensor event stream , Root cause analysis , Time sequence , Dynamic Time Warping</t>
+  </si>
+  <si>
+    <t>Inter-organizational business processes , Incentive alignment , Collaboration , Choreography</t>
+  </si>
+  <si>
+    <t>Process forecasting , Proactive business process management, Predictive business process management</t>
+  </si>
+  <si>
+    <t>BPM methods , Context awareness , Assessment scheme, Literature review</t>
+  </si>
+  <si>
+    <t>Big data analytics , Process innovation capabilities,fsQCA , Resource-based view , Contingency theory</t>
+  </si>
+  <si>
+    <t>Compliance management life-cycle , Business process compliance, Digitization</t>
+  </si>
+  <si>
+    <t>Business process management , Long tail of business processes,Management framework , Decentralization</t>
+  </si>
+  <si>
+    <t>Business process management , Leadership,Public-sector organizations , Developing countries , Actor-network theory,Complexity leadership theory , Case study</t>
+  </si>
+  <si>
+    <t>Business process management , Anomaly detection,  Artificial process intelligence , Deep learning,Recurrent neural networks</t>
+  </si>
+  <si>
+    <t>Process mining , Declarative processes , Temporal logics, Separation theorem , Automata theory</t>
+  </si>
+  <si>
+    <t>Workflow Weaving, Implicit BPM, Distributed Platform,Aspect-Orientation, MVC Architecture</t>
+  </si>
+  <si>
+    <t>Process Mining, Recommender Systems, Algorithm Selection</t>
+  </si>
+  <si>
+    <t>business process modeling, directed acyclic graphs, seriesparallel reductions, process algebra</t>
+  </si>
+  <si>
+    <t>Coupling, object life cycle, object-centric and data-driven processes, state machines</t>
+  </si>
+  <si>
+    <t>Workflow graph parsing, Control flow, Model decomposition, BPMN to BPEL translation/ roundtripping, Subprocess detection, Graph theory</t>
+  </si>
+  <si>
+    <t>Banking industry, business process modeling, customer centricity,customer orientation, customer process</t>
+  </si>
+  <si>
+    <t>Business process modeling and analysis,Formal models in business process management,Process patterns,Process verification
 and validation,Workflow management systems</t>
   </si>
   <si>
-    <t>BPM Governance and Compliance, Management Issues and Empirical Studies, Non-traditional BPM Scenarios</t>
+    <t>Business process modeling and analysis, processes and service composition</t>
+  </si>
+  <si>
+    <t>Workflow Management, Process Mining, Short-term Simulation Setting, Probabilistic Strategy</t>
+  </si>
+  <si>
+    <t>Adoption and Practice of BPM, Business Process Modeling, BPM maturity, Empirical Study</t>
+  </si>
+  <si>
+    <t>Business process management, Deviance, Process decision making,Process performance management, Stochastic processes</t>
+  </si>
+  <si>
+    <t>Declarative process models , Temporal logics , Process mining , Probabilistic process monitoring , Probabilistic conformance checking</t>
   </si>
 </sst>
 </file>
@@ -5331,15 +5268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5622,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J424" sqref="J424"/>
+    <sheetView tabSelected="1" topLeftCell="E1322" zoomScale="133" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J1258" sqref="J1258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5664,10 +5600,10 @@
         <v>1523</v>
       </c>
       <c r="I1" t="s">
-        <v>1727</v>
+        <v>1681</v>
       </c>
       <c r="J1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5901,7 +5837,7 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -5933,7 +5869,7 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -7399,7 +7335,7 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -7431,7 +7367,7 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -7463,7 +7399,7 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -7495,7 +7431,7 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
@@ -7701,7 +7637,7 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -7733,7 +7669,7 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" t="s">
         <v>1532</v>
       </c>
     </row>
@@ -10882,7 +10818,7 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J176" t="s">
         <v>1541</v>
       </c>
     </row>
@@ -10914,7 +10850,7 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177" s="4" t="s">
+      <c r="J177" t="s">
         <v>1541</v>
       </c>
     </row>
@@ -11042,8 +10978,8 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>1543</v>
+      <c r="J181" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -11074,8 +11010,8 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>1543</v>
+      <c r="J182" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
@@ -11106,8 +11042,8 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>1543</v>
+      <c r="J183" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
@@ -11138,8 +11074,8 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>1543</v>
+      <c r="J184" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -11170,8 +11106,8 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>1543</v>
+      <c r="J185" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
@@ -11202,8 +11138,8 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186" s="4" t="s">
-        <v>1543</v>
+      <c r="J186" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -11234,8 +11170,8 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>1543</v>
+      <c r="J187" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -11266,8 +11202,8 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>1543</v>
+      <c r="J188" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -11299,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -11331,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -11363,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -11453,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -11485,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -11517,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
@@ -11549,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -11581,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
@@ -11613,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -11645,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -11677,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -11709,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -11741,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -11773,7 +11709,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -11805,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -11837,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -11869,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -11901,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -11933,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -11965,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -11997,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
@@ -12029,7 +11965,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -12583,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -12615,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
@@ -12647,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
@@ -12679,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -12711,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -12743,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -12775,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
@@ -12894,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -12926,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -13073,8 +13009,8 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>1552</v>
+      <c r="J247" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
@@ -13105,8 +13041,8 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>1552</v>
+      <c r="J248" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -13138,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
@@ -13170,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -13202,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
@@ -13234,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
@@ -13266,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -13298,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
@@ -13330,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
@@ -13572,7 +13508,7 @@
       <c r="B264">
         <v>2007</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="3" t="s">
         <v>412</v>
       </c>
       <c r="D264" t="s">
@@ -13594,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
@@ -13626,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
@@ -13658,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
@@ -13690,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
@@ -14215,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -14247,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
@@ -14279,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -14311,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
@@ -14343,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
@@ -14375,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -14407,7 +14343,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
@@ -14439,7 +14375,7 @@
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -14471,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -14503,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -14535,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -14567,7 +14503,7 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
@@ -14599,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -14631,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -14663,7 +14599,7 @@
         <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -15014,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -15046,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="J312" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -15078,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -15110,7 +15046,7 @@
         <v>1</v>
       </c>
       <c r="J314" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -15142,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="J315" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
@@ -15174,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="J316" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -15206,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -15238,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>1563</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -15270,7 +15206,7 @@
         <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>1563</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.2">
@@ -15302,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>1563</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.2">
@@ -15334,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -15366,7 +15302,7 @@
         <v>1</v>
       </c>
       <c r="J322" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -15398,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="J323" s="4" t="s">
-        <v>1565</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.2">
@@ -15430,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>1566</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -15462,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>1566</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -15552,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="J328" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -15584,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="J329" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -15616,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -15648,7 +15584,7 @@
         <v>1</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>1568</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -15680,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>1568</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -15712,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>1568</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -15744,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>1568</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -15776,7 +15712,7 @@
         <v>1</v>
       </c>
       <c r="J335" s="4" t="s">
-        <v>1568</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -15953,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="J341" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -15985,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
@@ -16017,7 +15953,7 @@
         <v>1</v>
       </c>
       <c r="J343" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -16049,7 +15985,7 @@
         <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -16458,7 +16394,7 @@
         <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
@@ -16490,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
@@ -16754,7 +16690,7 @@
         <v>1</v>
       </c>
       <c r="J368" t="s">
-        <v>1570</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.2">
@@ -16786,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="J369" t="s">
-        <v>1570</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.2">
@@ -16818,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="J370" t="s">
-        <v>1570</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
@@ -16850,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="J371" t="s">
-        <v>1570</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
@@ -17056,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.2">
@@ -17088,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="J379" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
@@ -17120,7 +17056,7 @@
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.2">
@@ -17152,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -17300,7 +17236,7 @@
         <v>1</v>
       </c>
       <c r="J386" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.2">
@@ -17332,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.2">
@@ -17364,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.2">
@@ -17628,7 +17564,7 @@
         <v>1</v>
       </c>
       <c r="J397" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.2">
@@ -17660,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="J398" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.2">
@@ -17692,7 +17628,7 @@
         <v>1</v>
       </c>
       <c r="J399" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.2">
@@ -17724,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="J400" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.2">
@@ -17756,7 +17692,7 @@
         <v>1</v>
       </c>
       <c r="J401" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.2">
@@ -17788,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
@@ -17820,7 +17756,7 @@
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
@@ -17852,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="J404" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.2">
@@ -17884,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
@@ -17916,7 +17852,7 @@
         <v>1</v>
       </c>
       <c r="J406" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.2">
@@ -17948,7 +17884,7 @@
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.2">
@@ -17980,7 +17916,7 @@
         <v>1</v>
       </c>
       <c r="J408" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.2">
@@ -18012,7 +17948,7 @@
         <v>1</v>
       </c>
       <c r="J409" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.2">
@@ -18334,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="J420" t="s">
-        <v>1729</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
@@ -18366,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>1729</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
@@ -18571,8 +18507,8 @@
       <c r="I428">
         <v>1</v>
       </c>
-      <c r="J428" s="4" t="s">
-        <v>1575</v>
+      <c r="J428" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
@@ -18603,8 +18539,8 @@
       <c r="I429">
         <v>1</v>
       </c>
-      <c r="J429" s="4" t="s">
-        <v>1575</v>
+      <c r="J429" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
@@ -18635,8 +18571,8 @@
       <c r="I430">
         <v>1</v>
       </c>
-      <c r="J430" s="4" t="s">
-        <v>1575</v>
+      <c r="J430" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
@@ -18668,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
@@ -18700,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="J432" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
@@ -18732,7 +18668,7 @@
         <v>1</v>
       </c>
       <c r="J433" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -18764,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="J434" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
@@ -18796,7 +18732,7 @@
         <v>1</v>
       </c>
       <c r="J435" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
@@ -18828,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="J436" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
@@ -18860,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
@@ -19037,7 +18973,7 @@
         <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.2">
@@ -19069,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.2">
@@ -19101,7 +19037,7 @@
         <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.2">
@@ -19133,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="J446" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.2">
@@ -19165,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="J447" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.2">
@@ -19197,7 +19133,7 @@
         <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.2">
@@ -19229,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.2">
@@ -19261,7 +19197,7 @@
         <v>1</v>
       </c>
       <c r="J450" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.2">
@@ -19525,7 +19461,7 @@
         <v>1</v>
       </c>
       <c r="J459" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
@@ -19557,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="J460" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
@@ -19589,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="J461" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.2">
@@ -19621,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.2">
@@ -19653,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
@@ -19685,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
@@ -20587,7 +20523,7 @@
         <v>1</v>
       </c>
       <c r="J495" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.2">
@@ -20619,7 +20555,7 @@
         <v>1</v>
       </c>
       <c r="J496" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.2">
@@ -20651,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.2">
@@ -20683,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="J498" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.2">
@@ -20976,7 +20912,7 @@
         <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.2">
@@ -21008,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="J509" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.2">
@@ -21040,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.2">
@@ -21072,7 +21008,7 @@
         <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.2">
@@ -21568,7 +21504,7 @@
         <v>1</v>
       </c>
       <c r="J528" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.2">
@@ -21600,7 +21536,7 @@
         <v>1</v>
       </c>
       <c r="J529" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.2">
@@ -21632,7 +21568,7 @@
         <v>1</v>
       </c>
       <c r="J530" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.2">
@@ -21664,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="J531" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
@@ -22102,7 +22038,7 @@
         <v>1</v>
       </c>
       <c r="J546" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.2">
@@ -22134,7 +22070,7 @@
         <v>1</v>
       </c>
       <c r="J547" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.2">
@@ -22166,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="J548" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.2">
@@ -22198,7 +22134,7 @@
         <v>1</v>
       </c>
       <c r="J549" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.2">
@@ -22433,7 +22369,7 @@
         <v>1</v>
       </c>
       <c r="J557" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.2">
@@ -22465,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="J558" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.2">
@@ -22497,7 +22433,7 @@
         <v>1</v>
       </c>
       <c r="J559" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
@@ -22529,7 +22465,7 @@
         <v>1</v>
       </c>
       <c r="J560" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.2">
@@ -22561,7 +22497,7 @@
         <v>1</v>
       </c>
       <c r="J561" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
@@ -22593,7 +22529,7 @@
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.2">
@@ -22857,7 +22793,7 @@
         <v>1</v>
       </c>
       <c r="J571" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.2">
@@ -22889,7 +22825,7 @@
         <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.2">
@@ -22921,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="J573" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.2">
@@ -22953,7 +22889,7 @@
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.2">
@@ -22985,7 +22921,7 @@
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.2">
@@ -23017,7 +22953,7 @@
         <v>1</v>
       </c>
       <c r="J576" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.2">
@@ -23049,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="J577" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.2">
@@ -23081,7 +23017,7 @@
         <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.2">
@@ -23113,7 +23049,7 @@
         <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.2">
@@ -23145,7 +23081,7 @@
         <v>1</v>
       </c>
       <c r="J580" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.2">
@@ -23177,7 +23113,7 @@
         <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.2">
@@ -23209,7 +23145,7 @@
         <v>1</v>
       </c>
       <c r="J582" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.2">
@@ -23502,7 +23438,7 @@
         <v>1</v>
       </c>
       <c r="J592" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
@@ -23534,7 +23470,7 @@
         <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.2">
@@ -23566,7 +23502,7 @@
         <v>1</v>
       </c>
       <c r="J594" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.2">
@@ -23598,7 +23534,7 @@
         <v>1</v>
       </c>
       <c r="J595" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.2">
@@ -23630,7 +23566,7 @@
         <v>1</v>
       </c>
       <c r="J596" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.2">
@@ -24097,7 +24033,7 @@
         <v>1</v>
       </c>
       <c r="J612" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.2">
@@ -24129,7 +24065,7 @@
         <v>1</v>
       </c>
       <c r="J613" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.2">
@@ -24161,7 +24097,7 @@
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
@@ -24193,7 +24129,7 @@
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.2">
@@ -24225,7 +24161,7 @@
         <v>1</v>
       </c>
       <c r="J616" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.2">
@@ -24257,7 +24193,7 @@
         <v>1</v>
       </c>
       <c r="J617" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.2">
@@ -24289,7 +24225,7 @@
         <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.2">
@@ -24321,7 +24257,7 @@
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
@@ -24353,7 +24289,7 @@
         <v>1</v>
       </c>
       <c r="J620" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.2">
@@ -24472,7 +24408,7 @@
         <v>1</v>
       </c>
       <c r="J624" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.2">
@@ -24504,7 +24440,7 @@
         <v>1</v>
       </c>
       <c r="J625" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.2">
@@ -24536,7 +24472,7 @@
         <v>1</v>
       </c>
       <c r="J626" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.2">
@@ -25062,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="J644" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.2">
@@ -25095,7 +25031,7 @@
         <v>1</v>
       </c>
       <c r="J645" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.2">
@@ -25458,7 +25394,7 @@
         <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.2">
@@ -25491,7 +25427,7 @@
         <v>1</v>
       </c>
       <c r="J658" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.2">
@@ -25524,7 +25460,7 @@
         <v>1</v>
       </c>
       <c r="J659" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
@@ -25557,7 +25493,7 @@
         <v>1</v>
       </c>
       <c r="J660" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.2">
@@ -25740,7 +25676,7 @@
         <v>1</v>
       </c>
       <c r="J666" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.2">
@@ -25773,7 +25709,7 @@
         <v>1</v>
       </c>
       <c r="J667" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.2">
@@ -25806,7 +25742,7 @@
         <v>1</v>
       </c>
       <c r="J668" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.2">
@@ -25929,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="J672" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.2">
@@ -25962,7 +25898,7 @@
         <v>1</v>
       </c>
       <c r="J673" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.2">
@@ -25995,7 +25931,7 @@
         <v>1</v>
       </c>
       <c r="J674" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.2">
@@ -26028,7 +25964,7 @@
         <v>1</v>
       </c>
       <c r="J675" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.2">
@@ -26391,7 +26327,7 @@
         <v>1</v>
       </c>
       <c r="J687" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.2">
@@ -26424,7 +26360,7 @@
         <v>1</v>
       </c>
       <c r="J688" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.2">
@@ -26457,7 +26393,7 @@
         <v>1</v>
       </c>
       <c r="J689" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.2">
@@ -26490,7 +26426,7 @@
         <v>1</v>
       </c>
       <c r="J690" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.2">
@@ -26523,7 +26459,7 @@
         <v>1</v>
       </c>
       <c r="J691" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.2">
@@ -26646,7 +26582,7 @@
         <v>1</v>
       </c>
       <c r="J695" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.2">
@@ -26679,7 +26615,7 @@
         <v>1</v>
       </c>
       <c r="J696" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.2">
@@ -26712,7 +26648,7 @@
         <v>1</v>
       </c>
       <c r="J697" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.2">
@@ -26745,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="J698" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.2">
@@ -26778,7 +26714,7 @@
         <v>1</v>
       </c>
       <c r="J699" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.2">
@@ -26811,7 +26747,7 @@
         <v>1</v>
       </c>
       <c r="J700" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.2">
@@ -26844,7 +26780,7 @@
         <v>1</v>
       </c>
       <c r="J701" t="s">
-        <v>1604</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.2">
@@ -26877,7 +26813,7 @@
         <v>1</v>
       </c>
       <c r="J702" t="s">
-        <v>1604</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.2">
@@ -26910,7 +26846,7 @@
         <v>1</v>
       </c>
       <c r="J703" t="s">
-        <v>1604</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.2">
@@ -26943,7 +26879,7 @@
         <v>1</v>
       </c>
       <c r="J704" t="s">
-        <v>1604</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.2">
@@ -26976,7 +26912,7 @@
         <v>1</v>
       </c>
       <c r="J705" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.2">
@@ -27009,7 +26945,7 @@
         <v>1</v>
       </c>
       <c r="J706" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.2">
@@ -27042,7 +26978,7 @@
         <v>1</v>
       </c>
       <c r="J707" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.2">
@@ -27075,7 +27011,7 @@
         <v>1</v>
       </c>
       <c r="J708" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.2">
@@ -27108,7 +27044,7 @@
         <v>1</v>
       </c>
       <c r="J709" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.2">
@@ -27261,7 +27197,7 @@
         <v>1</v>
       </c>
       <c r="J714" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.2">
@@ -27294,7 +27230,7 @@
         <v>1</v>
       </c>
       <c r="J715" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.2">
@@ -27327,7 +27263,7 @@
         <v>1</v>
       </c>
       <c r="J716" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.2">
@@ -27360,7 +27296,7 @@
         <v>1</v>
       </c>
       <c r="J717" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.2">
@@ -27393,7 +27329,7 @@
         <v>1</v>
       </c>
       <c r="J718" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.2">
@@ -27426,7 +27362,7 @@
         <v>1</v>
       </c>
       <c r="J719" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.2">
@@ -27459,7 +27395,7 @@
         <v>1</v>
       </c>
       <c r="J720" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.2">
@@ -27492,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="J721" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.2">
@@ -27525,7 +27461,7 @@
         <v>1</v>
       </c>
       <c r="J722" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.2">
@@ -27558,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="J723" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.2">
@@ -27591,7 +27527,7 @@
         <v>1</v>
       </c>
       <c r="J724" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.2">
@@ -27623,8 +27559,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J725" s="4" t="s">
-        <v>1609</v>
+      <c r="J725" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.2">
@@ -27656,8 +27592,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J726" s="4" t="s">
-        <v>1609</v>
+      <c r="J726" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.2">
@@ -27689,8 +27625,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J727" s="4" t="s">
-        <v>1609</v>
+      <c r="J727" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.2">
@@ -27722,8 +27658,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J728" s="4" t="s">
-        <v>1609</v>
+      <c r="J728" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.2">
@@ -27756,7 +27692,7 @@
         <v>1</v>
       </c>
       <c r="J729" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.2">
@@ -27789,7 +27725,7 @@
         <v>1</v>
       </c>
       <c r="J730" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.2">
@@ -28002,7 +27938,7 @@
         <v>1</v>
       </c>
       <c r="J737" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.2">
@@ -28035,7 +27971,7 @@
         <v>1</v>
       </c>
       <c r="J738" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.2">
@@ -28338,7 +28274,7 @@
         <v>1</v>
       </c>
       <c r="J748" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.2">
@@ -28371,7 +28307,7 @@
         <v>1</v>
       </c>
       <c r="J749" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.2">
@@ -28404,7 +28340,7 @@
         <v>1</v>
       </c>
       <c r="J750" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.2">
@@ -28437,7 +28373,7 @@
         <v>1</v>
       </c>
       <c r="J751" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.2">
@@ -28470,7 +28406,7 @@
         <v>1</v>
       </c>
       <c r="J752" t="s">
-        <v>1613</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.2">
@@ -28503,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="J753" t="s">
-        <v>1613</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.2">
@@ -28536,7 +28472,7 @@
         <v>1</v>
       </c>
       <c r="J754" t="s">
-        <v>1613</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.2">
@@ -28779,7 +28715,7 @@
         <v>1</v>
       </c>
       <c r="J762" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.2">
@@ -28812,7 +28748,7 @@
         <v>1</v>
       </c>
       <c r="J763" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.2">
@@ -28845,7 +28781,7 @@
         <v>1</v>
       </c>
       <c r="J764" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.2">
@@ -29058,7 +28994,7 @@
         <v>1</v>
       </c>
       <c r="J771" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.2">
@@ -29091,7 +29027,7 @@
         <v>1</v>
       </c>
       <c r="J772" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.2">
@@ -29124,7 +29060,7 @@
         <v>1</v>
       </c>
       <c r="J773" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="774" spans="1:10" x14ac:dyDescent="0.2">
@@ -29157,7 +29093,7 @@
         <v>1</v>
       </c>
       <c r="J774" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.2">
@@ -29190,7 +29126,7 @@
         <v>1</v>
       </c>
       <c r="J775" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="776" spans="1:10" x14ac:dyDescent="0.2">
@@ -29433,7 +29369,7 @@
         <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.2">
@@ -29466,7 +29402,7 @@
         <v>1</v>
       </c>
       <c r="J784" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.2">
@@ -29499,7 +29435,7 @@
         <v>1</v>
       </c>
       <c r="J785" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.2">
@@ -29622,7 +29558,7 @@
         <v>1</v>
       </c>
       <c r="J789" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.2">
@@ -29655,7 +29591,7 @@
         <v>1</v>
       </c>
       <c r="J790" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.2">
@@ -29688,7 +29624,7 @@
         <v>1</v>
       </c>
       <c r="J791" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="792" spans="1:10" x14ac:dyDescent="0.2">
@@ -29721,7 +29657,7 @@
         <v>1</v>
       </c>
       <c r="J792" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.2">
@@ -29754,7 +29690,7 @@
         <v>1</v>
       </c>
       <c r="J793" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.2">
@@ -29787,7 +29723,7 @@
         <v>1</v>
       </c>
       <c r="J794" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="795" spans="1:10" x14ac:dyDescent="0.2">
@@ -29820,7 +29756,7 @@
         <v>1</v>
       </c>
       <c r="J795" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.2">
@@ -29853,7 +29789,7 @@
         <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="797" spans="1:10" x14ac:dyDescent="0.2">
@@ -29886,7 +29822,7 @@
         <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.2">
@@ -29919,7 +29855,7 @@
         <v>1</v>
       </c>
       <c r="J798" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.2">
@@ -29952,7 +29888,7 @@
         <v>1</v>
       </c>
       <c r="J799" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.2">
@@ -29985,7 +29921,7 @@
         <v>1</v>
       </c>
       <c r="J800" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.2">
@@ -30018,7 +29954,7 @@
         <v>1</v>
       </c>
       <c r="J801" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="802" spans="1:10" x14ac:dyDescent="0.2">
@@ -30051,7 +29987,7 @@
         <v>1</v>
       </c>
       <c r="J802" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.2">
@@ -30084,7 +30020,7 @@
         <v>1</v>
       </c>
       <c r="J803" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.2">
@@ -30117,7 +30053,7 @@
         <v>1</v>
       </c>
       <c r="J804" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.2">
@@ -30150,7 +30086,7 @@
         <v>1</v>
       </c>
       <c r="J805" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.2">
@@ -30183,7 +30119,7 @@
         <v>1</v>
       </c>
       <c r="J806" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.2">
@@ -30456,7 +30392,7 @@
         <v>1</v>
       </c>
       <c r="J815" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.2">
@@ -30489,7 +30425,7 @@
         <v>1</v>
       </c>
       <c r="J816" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="817" spans="1:10" x14ac:dyDescent="0.2">
@@ -30522,7 +30458,7 @@
         <v>1</v>
       </c>
       <c r="J817" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="818" spans="1:10" x14ac:dyDescent="0.2">
@@ -30555,7 +30491,7 @@
         <v>1</v>
       </c>
       <c r="J818" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.2">
@@ -30588,7 +30524,7 @@
         <v>1</v>
       </c>
       <c r="J819" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.2">
@@ -30891,7 +30827,7 @@
         <v>1</v>
       </c>
       <c r="J829" t="s">
-        <v>1700</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="830" spans="1:10" x14ac:dyDescent="0.2">
@@ -30924,7 +30860,7 @@
         <v>1</v>
       </c>
       <c r="J830" t="s">
-        <v>1700</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.2">
@@ -30957,7 +30893,7 @@
         <v>1</v>
       </c>
       <c r="J831" t="s">
-        <v>1701</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.2">
@@ -30990,7 +30926,7 @@
         <v>1</v>
       </c>
       <c r="J832" t="s">
-        <v>1701</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.2">
@@ -31023,7 +30959,7 @@
         <v>1</v>
       </c>
       <c r="J833" t="s">
-        <v>1701</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="834" spans="1:10" x14ac:dyDescent="0.2">
@@ -31056,7 +30992,7 @@
         <v>1</v>
       </c>
       <c r="J834" t="s">
-        <v>1701</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="835" spans="1:10" x14ac:dyDescent="0.2">
@@ -31269,7 +31205,7 @@
         <v>1</v>
       </c>
       <c r="J841" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.2">
@@ -31302,7 +31238,7 @@
         <v>1</v>
       </c>
       <c r="J842" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.2">
@@ -31335,7 +31271,7 @@
         <v>1</v>
       </c>
       <c r="J843" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.2">
@@ -31368,7 +31304,7 @@
         <v>1</v>
       </c>
       <c r="J844" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.2">
@@ -31401,7 +31337,7 @@
         <v>1</v>
       </c>
       <c r="J845" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.2">
@@ -31524,7 +31460,7 @@
         <v>1</v>
       </c>
       <c r="J849" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="850" spans="1:10" x14ac:dyDescent="0.2">
@@ -31557,7 +31493,7 @@
         <v>1</v>
       </c>
       <c r="J850" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="851" spans="1:10" x14ac:dyDescent="0.2">
@@ -31590,7 +31526,7 @@
         <v>1</v>
       </c>
       <c r="J851" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="852" spans="1:10" x14ac:dyDescent="0.2">
@@ -31623,7 +31559,7 @@
         <v>1</v>
       </c>
       <c r="J852" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.2">
@@ -31656,7 +31592,7 @@
         <v>1</v>
       </c>
       <c r="J853" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="854" spans="1:10" x14ac:dyDescent="0.2">
@@ -31689,7 +31625,7 @@
         <v>1</v>
       </c>
       <c r="J854" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.2">
@@ -31722,7 +31658,7 @@
         <v>1</v>
       </c>
       <c r="J855" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.2">
@@ -31755,7 +31691,7 @@
         <v>1</v>
       </c>
       <c r="J856" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.2">
@@ -31788,7 +31724,7 @@
         <v>1</v>
       </c>
       <c r="J857" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="858" spans="1:10" x14ac:dyDescent="0.2">
@@ -31881,7 +31817,7 @@
         <v>1</v>
       </c>
       <c r="J860" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.2">
@@ -31914,7 +31850,7 @@
         <v>1</v>
       </c>
       <c r="J861" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.2">
@@ -31947,7 +31883,7 @@
         <v>1</v>
       </c>
       <c r="J862" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.2">
@@ -31980,7 +31916,7 @@
         <v>1</v>
       </c>
       <c r="J863" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="864" spans="1:10" x14ac:dyDescent="0.2">
@@ -32013,7 +31949,7 @@
         <v>1</v>
       </c>
       <c r="J864" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="865" spans="1:10" x14ac:dyDescent="0.2">
@@ -32046,7 +31982,7 @@
         <v>1</v>
       </c>
       <c r="J865" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.2">
@@ -32319,7 +32255,7 @@
         <v>1</v>
       </c>
       <c r="J874" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.2">
@@ -32352,7 +32288,7 @@
         <v>1</v>
       </c>
       <c r="J875" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.2">
@@ -32385,7 +32321,7 @@
         <v>1</v>
       </c>
       <c r="J876" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.2">
@@ -32418,7 +32354,7 @@
         <v>1</v>
       </c>
       <c r="J877" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.2">
@@ -32451,7 +32387,7 @@
         <v>1</v>
       </c>
       <c r="J878" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.2">
@@ -32484,7 +32420,7 @@
         <v>1</v>
       </c>
       <c r="J879" t="s">
-        <v>1706</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="880" spans="1:10" x14ac:dyDescent="0.2">
@@ -32517,7 +32453,7 @@
         <v>1</v>
       </c>
       <c r="J880" t="s">
-        <v>1706</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.2">
@@ -32550,7 +32486,7 @@
         <v>1</v>
       </c>
       <c r="J881" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="882" spans="1:10" x14ac:dyDescent="0.2">
@@ -32583,7 +32519,7 @@
         <v>1</v>
       </c>
       <c r="J882" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="883" spans="1:10" x14ac:dyDescent="0.2">
@@ -32616,7 +32552,7 @@
         <v>1</v>
       </c>
       <c r="J883" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="884" spans="1:10" x14ac:dyDescent="0.2">
@@ -32649,7 +32585,7 @@
         <v>1</v>
       </c>
       <c r="J884" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.2">
@@ -32682,7 +32618,7 @@
         <v>1</v>
       </c>
       <c r="J885" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="886" spans="1:10" x14ac:dyDescent="0.2">
@@ -32715,7 +32651,7 @@
         <v>1</v>
       </c>
       <c r="J886" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.2">
@@ -32748,7 +32684,7 @@
         <v>1</v>
       </c>
       <c r="J887" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.2">
@@ -32781,7 +32717,7 @@
         <v>1</v>
       </c>
       <c r="J888" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.2">
@@ -32814,7 +32750,7 @@
         <v>1</v>
       </c>
       <c r="J889" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="890" spans="1:10" x14ac:dyDescent="0.2">
@@ -32847,7 +32783,7 @@
         <v>1</v>
       </c>
       <c r="J890" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.2">
@@ -32880,7 +32816,7 @@
         <v>1</v>
       </c>
       <c r="J891" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="892" spans="1:10" x14ac:dyDescent="0.2">
@@ -32913,7 +32849,7 @@
         <v>1</v>
       </c>
       <c r="J892" t="s">
-        <v>1709</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="893" spans="1:10" x14ac:dyDescent="0.2">
@@ -32946,7 +32882,7 @@
         <v>1</v>
       </c>
       <c r="J893" t="s">
-        <v>1709</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="894" spans="1:10" x14ac:dyDescent="0.2">
@@ -32979,7 +32915,7 @@
         <v>1</v>
       </c>
       <c r="J894" t="s">
-        <v>1699</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.2">
@@ -33012,7 +32948,7 @@
         <v>1</v>
       </c>
       <c r="J895" t="s">
-        <v>1699</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="896" spans="1:10" x14ac:dyDescent="0.2">
@@ -33045,7 +32981,7 @@
         <v>1</v>
       </c>
       <c r="J896" t="s">
-        <v>1699</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.2">
@@ -33078,7 +33014,7 @@
         <v>1</v>
       </c>
       <c r="J897" t="s">
-        <v>1699</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.2">
@@ -33111,7 +33047,7 @@
         <v>1</v>
       </c>
       <c r="J898" t="s">
-        <v>1710</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="899" spans="1:10" x14ac:dyDescent="0.2">
@@ -33144,7 +33080,7 @@
         <v>1</v>
       </c>
       <c r="J899" t="s">
-        <v>1710</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.2">
@@ -33177,7 +33113,7 @@
         <v>1</v>
       </c>
       <c r="J900" t="s">
-        <v>1710</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.2">
@@ -33210,7 +33146,7 @@
         <v>1</v>
       </c>
       <c r="J901" t="s">
-        <v>1710</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="902" spans="1:10" x14ac:dyDescent="0.2">
@@ -33513,7 +33449,7 @@
         <v>1</v>
       </c>
       <c r="J911" t="s">
-        <v>1711</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.2">
@@ -33546,7 +33482,7 @@
         <v>1</v>
       </c>
       <c r="J912" t="s">
-        <v>1711</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.2">
@@ -33579,7 +33515,7 @@
         <v>1</v>
       </c>
       <c r="J913" t="s">
-        <v>1711</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="914" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -33611,8 +33547,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J914" s="3" t="s">
-        <v>1712</v>
+      <c r="J914" s="2" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="915" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -33644,8 +33580,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J915" s="3" t="s">
-        <v>1712</v>
+      <c r="J915" s="2" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="916" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -33677,8 +33613,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J916" s="3" t="s">
-        <v>1712</v>
+      <c r="J916" s="2" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="917" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -33710,8 +33646,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J917" s="3" t="s">
-        <v>1712</v>
+      <c r="J917" s="2" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.2">
@@ -33743,8 +33679,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J918" s="4" t="s">
-        <v>1713</v>
+      <c r="J918" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.2">
@@ -33776,8 +33712,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J919" s="4" t="s">
-        <v>1713</v>
+      <c r="J919" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="920" spans="1:10" x14ac:dyDescent="0.2">
@@ -33809,8 +33745,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J920" s="4" t="s">
-        <v>1714</v>
+      <c r="J920" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.2">
@@ -33842,8 +33778,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J921" s="4" t="s">
-        <v>1715</v>
+      <c r="J921" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.2">
@@ -33875,8 +33811,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J922" s="4" t="s">
-        <v>1715</v>
+      <c r="J922" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.2">
@@ -33908,8 +33844,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J923" s="4" t="s">
-        <v>1715</v>
+      <c r="J923" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.2">
@@ -33941,8 +33877,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J924" s="4" t="s">
-        <v>1715</v>
+      <c r="J924" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.2">
@@ -33974,8 +33910,8 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J925" s="4" t="s">
-        <v>1715</v>
+      <c r="J925" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="926" spans="1:10" x14ac:dyDescent="0.2">
@@ -34128,7 +34064,7 @@
         <v>1</v>
       </c>
       <c r="J930" t="s">
-        <v>1716</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="931" spans="1:10" x14ac:dyDescent="0.2">
@@ -34161,7 +34097,7 @@
         <v>1</v>
       </c>
       <c r="J931" t="s">
-        <v>1716</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.2">
@@ -34194,7 +34130,7 @@
         <v>1</v>
       </c>
       <c r="J932" t="s">
-        <v>1716</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="933" spans="1:10" x14ac:dyDescent="0.2">
@@ -34227,7 +34163,7 @@
         <v>1</v>
       </c>
       <c r="J933" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="934" spans="1:10" x14ac:dyDescent="0.2">
@@ -34260,7 +34196,7 @@
         <v>1</v>
       </c>
       <c r="J934" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="935" spans="1:10" x14ac:dyDescent="0.2">
@@ -34293,7 +34229,7 @@
         <v>1</v>
       </c>
       <c r="J935" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="936" spans="1:10" x14ac:dyDescent="0.2">
@@ -34326,7 +34262,7 @@
         <v>1</v>
       </c>
       <c r="J936" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.2">
@@ -34359,7 +34295,7 @@
         <v>1</v>
       </c>
       <c r="J937" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.2">
@@ -34392,7 +34328,7 @@
         <v>1</v>
       </c>
       <c r="J938" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.2">
@@ -34425,7 +34361,7 @@
         <v>1</v>
       </c>
       <c r="J939" t="s">
-        <v>1718</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.2">
@@ -34458,7 +34394,7 @@
         <v>1</v>
       </c>
       <c r="J940" t="s">
-        <v>1718</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.2">
@@ -34491,7 +34427,7 @@
         <v>1</v>
       </c>
       <c r="J941" t="s">
-        <v>1718</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="942" spans="1:10" x14ac:dyDescent="0.2">
@@ -34524,7 +34460,7 @@
         <v>1</v>
       </c>
       <c r="J942" t="s">
-        <v>1718</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.2">
@@ -34557,7 +34493,7 @@
         <v>1</v>
       </c>
       <c r="J943" t="s">
-        <v>1719</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="944" spans="1:10" x14ac:dyDescent="0.2">
@@ -34590,7 +34526,7 @@
         <v>1</v>
       </c>
       <c r="J944" t="s">
-        <v>1719</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.2">
@@ -34623,7 +34559,7 @@
         <v>1</v>
       </c>
       <c r="J945" t="s">
-        <v>1719</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="946" spans="1:10" x14ac:dyDescent="0.2">
@@ -34656,7 +34592,7 @@
         <v>1</v>
       </c>
       <c r="J946" t="s">
-        <v>1719</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="947" spans="1:10" x14ac:dyDescent="0.2">
@@ -34689,7 +34625,7 @@
         <v>1</v>
       </c>
       <c r="J947" t="s">
-        <v>1720</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.2">
@@ -34722,7 +34658,7 @@
         <v>1</v>
       </c>
       <c r="J948" t="s">
-        <v>1720</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.2">
@@ -34755,7 +34691,7 @@
         <v>1</v>
       </c>
       <c r="J949" t="s">
-        <v>1720</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="950" spans="1:10" x14ac:dyDescent="0.2">
@@ -34788,7 +34724,7 @@
         <v>1</v>
       </c>
       <c r="J950" t="s">
-        <v>1721</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.2">
@@ -34821,7 +34757,7 @@
         <v>1</v>
       </c>
       <c r="J951" t="s">
-        <v>1721</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="952" spans="1:10" x14ac:dyDescent="0.2">
@@ -34854,7 +34790,7 @@
         <v>1</v>
       </c>
       <c r="J952" t="s">
-        <v>1721</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.2">
@@ -34887,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="J953" t="s">
-        <v>1721</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.2">
@@ -34920,7 +34856,7 @@
         <v>1</v>
       </c>
       <c r="J954" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.2">
@@ -34953,7 +34889,7 @@
         <v>1</v>
       </c>
       <c r="J955" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="956" spans="1:10" x14ac:dyDescent="0.2">
@@ -34986,7 +34922,7 @@
         <v>1</v>
       </c>
       <c r="J956" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="957" spans="1:10" x14ac:dyDescent="0.2">
@@ -35019,7 +34955,7 @@
         <v>1</v>
       </c>
       <c r="J957" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="958" spans="1:10" x14ac:dyDescent="0.2">
@@ -35052,7 +34988,7 @@
         <v>1</v>
       </c>
       <c r="J958" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="959" spans="1:10" x14ac:dyDescent="0.2">
@@ -35085,7 +35021,7 @@
         <v>1</v>
       </c>
       <c r="J959" t="s">
-        <v>1723</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.2">
@@ -35118,7 +35054,7 @@
         <v>1</v>
       </c>
       <c r="J960" t="s">
-        <v>1723</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="961" spans="1:10" x14ac:dyDescent="0.2">
@@ -35151,7 +35087,7 @@
         <v>1</v>
       </c>
       <c r="J961" t="s">
-        <v>1723</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.2">
@@ -35184,7 +35120,7 @@
         <v>1</v>
       </c>
       <c r="J962" t="s">
-        <v>1723</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.2">
@@ -35217,7 +35153,7 @@
         <v>1</v>
       </c>
       <c r="J963" t="s">
-        <v>1724</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="964" spans="1:10" x14ac:dyDescent="0.2">
@@ -35250,7 +35186,7 @@
         <v>1</v>
       </c>
       <c r="J964" t="s">
-        <v>1724</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.2">
@@ -35283,7 +35219,7 @@
         <v>1</v>
       </c>
       <c r="J965" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.2">
@@ -35316,7 +35252,7 @@
         <v>1</v>
       </c>
       <c r="J966" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.2">
@@ -35349,7 +35285,7 @@
         <v>1</v>
       </c>
       <c r="J967" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.2">
@@ -35382,7 +35318,7 @@
         <v>1</v>
       </c>
       <c r="J968" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.2">
@@ -35415,7 +35351,7 @@
         <v>1</v>
       </c>
       <c r="J969" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.2">
@@ -35448,7 +35384,7 @@
         <v>1</v>
       </c>
       <c r="J970" t="s">
-        <v>1726</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="971" spans="1:10" x14ac:dyDescent="0.2">
@@ -35481,7 +35417,7 @@
         <v>1</v>
       </c>
       <c r="J971" t="s">
-        <v>1726</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="972" spans="1:10" x14ac:dyDescent="0.2">
@@ -35514,7 +35450,7 @@
         <v>1</v>
       </c>
       <c r="J972" t="s">
-        <v>1726</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.2">
@@ -35547,7 +35483,7 @@
         <v>1</v>
       </c>
       <c r="J973" t="s">
-        <v>1630</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.2">
@@ -35580,7 +35516,7 @@
         <v>1</v>
       </c>
       <c r="J974" t="s">
-        <v>1630</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.2">
@@ -35613,7 +35549,7 @@
         <v>1</v>
       </c>
       <c r="J975" t="s">
-        <v>1630</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.2">
@@ -35646,7 +35582,7 @@
         <v>1</v>
       </c>
       <c r="J976" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.2">
@@ -35679,7 +35615,7 @@
         <v>1</v>
       </c>
       <c r="J977" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.2">
@@ -35712,7 +35648,7 @@
         <v>1</v>
       </c>
       <c r="J978" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.2">
@@ -35985,7 +35921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>8</v>
       </c>
@@ -36014,11 +35950,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J988" s="3" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="989" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J988" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="989" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>8</v>
       </c>
@@ -36047,11 +35983,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J989" s="3" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="990" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J989" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="990" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>8</v>
       </c>
@@ -36080,11 +36016,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J990" s="3" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="991" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="J990" s="4" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="991" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>8</v>
       </c>
@@ -36113,8 +36049,8 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J991" s="3" t="s">
-        <v>1631</v>
+      <c r="J991" s="4" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.2">
@@ -36147,7 +36083,7 @@
         <v>1</v>
       </c>
       <c r="J992" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.2">
@@ -36180,7 +36116,7 @@
         <v>1</v>
       </c>
       <c r="J993" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.2">
@@ -36213,7 +36149,7 @@
         <v>1</v>
       </c>
       <c r="J994" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.2">
@@ -36516,7 +36452,7 @@
         <v>1</v>
       </c>
       <c r="J1004" t="s">
-        <v>1633</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1005" spans="1:10" x14ac:dyDescent="0.2">
@@ -36759,7 +36695,7 @@
         <v>1</v>
       </c>
       <c r="J1012" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
@@ -36792,7 +36728,7 @@
         <v>1</v>
       </c>
       <c r="J1013" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
@@ -36825,7 +36761,7 @@
         <v>1</v>
       </c>
       <c r="J1014" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
@@ -36858,7 +36794,7 @@
         <v>1</v>
       </c>
       <c r="J1015" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
@@ -36891,10 +36827,10 @@
         <v>1</v>
       </c>
       <c r="J1016" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>16</v>
       </c>
@@ -36923,11 +36859,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1017" s="3" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J1017" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>16</v>
       </c>
@@ -36956,11 +36892,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1018" s="3" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="J1018" s="4" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>16</v>
       </c>
@@ -36989,8 +36925,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1019" s="3" t="s">
-        <v>1635</v>
+      <c r="J1019" s="4" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
@@ -37022,8 +36958,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1020" s="4" t="s">
-        <v>1636</v>
+      <c r="J1020" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
@@ -37055,8 +36991,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1021" s="4" t="s">
-        <v>1636</v>
+      <c r="J1021" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
@@ -37088,8 +37024,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1022" s="4" t="s">
-        <v>1636</v>
+      <c r="J1022" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
@@ -37121,8 +37057,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1023" s="4" t="s">
-        <v>1637</v>
+      <c r="J1023" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
@@ -37154,8 +37090,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1024" s="4" t="s">
-        <v>1637</v>
+      <c r="J1024" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
@@ -37187,8 +37123,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1025" s="4" t="s">
-        <v>1637</v>
+      <c r="J1025" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
@@ -37220,8 +37156,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1026" s="4" t="s">
-        <v>1638</v>
+      <c r="J1026" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
@@ -37253,8 +37189,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1027" s="4" t="s">
-        <v>1638</v>
+      <c r="J1027" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
@@ -37286,8 +37222,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1028" s="4" t="s">
-        <v>1638</v>
+      <c r="J1028" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
@@ -37319,8 +37255,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1029" s="4" t="s">
-        <v>1638</v>
+      <c r="J1029" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
@@ -37352,8 +37288,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1030" s="4" t="s">
-        <v>1638</v>
+      <c r="J1030" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
@@ -37385,8 +37321,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1031" s="4" t="s">
-        <v>1638</v>
+      <c r="J1031" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
@@ -37418,8 +37354,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1032" s="4" t="s">
-        <v>1638</v>
+      <c r="J1032" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
@@ -37451,8 +37387,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1033" s="4" t="s">
-        <v>1638</v>
+      <c r="J1033" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
@@ -37484,8 +37420,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1034" s="4" t="s">
-        <v>1639</v>
+      <c r="J1034" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
@@ -37517,8 +37453,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1035" s="4" t="s">
-        <v>1639</v>
+      <c r="J1035" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
@@ -37550,8 +37486,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1036" s="4" t="s">
-        <v>1639</v>
+      <c r="J1036" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
@@ -37583,8 +37519,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1037" s="4" t="s">
-        <v>1639</v>
+      <c r="J1037" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.2">
@@ -37616,8 +37552,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1038" s="4" t="s">
-        <v>1639</v>
+      <c r="J1038" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.2">
@@ -37650,7 +37586,7 @@
         <v>1</v>
       </c>
       <c r="J1039" s="4" t="s">
-        <v>1623</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
@@ -37683,7 +37619,7 @@
         <v>1</v>
       </c>
       <c r="J1040" s="4" t="s">
-        <v>1624</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
@@ -37716,7 +37652,7 @@
         <v>1</v>
       </c>
       <c r="J1041" s="4" t="s">
-        <v>1624</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
@@ -37749,7 +37685,7 @@
         <v>1</v>
       </c>
       <c r="J1042" s="4" t="s">
-        <v>1624</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
@@ -37781,8 +37717,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1043" s="4" t="s">
-        <v>1625</v>
+      <c r="J1043" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
@@ -37814,8 +37750,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1044" s="4" t="s">
-        <v>1625</v>
+      <c r="J1044" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
@@ -37847,8 +37783,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1045" s="4" t="s">
-        <v>1625</v>
+      <c r="J1045" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
@@ -37880,8 +37816,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1046" s="4" t="s">
-        <v>1625</v>
+      <c r="J1046" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
@@ -37913,8 +37849,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1047" s="4" t="s">
-        <v>1626</v>
+      <c r="J1047" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
@@ -37946,8 +37882,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1048" s="4" t="s">
-        <v>1626</v>
+      <c r="J1048" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
@@ -37979,8 +37915,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1049" s="4" t="s">
-        <v>1626</v>
+      <c r="J1049" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
@@ -38012,8 +37948,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1050" s="4" t="s">
-        <v>1627</v>
+      <c r="J1050" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
@@ -38045,8 +37981,8 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J1051" s="4" t="s">
-        <v>1627</v>
+      <c r="J1051" t="s">
+        <v>1708</v>
       </c>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
@@ -38075,10 +38011,9 @@
         <v>1245</v>
       </c>
       <c r="I1052">
-        <f>IF(J1052&lt;&gt;"", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J1052" s="4"/>
+        <f t="shared" ref="I1052:I1057" si="8">IF(J1052&lt;&gt;"", 1, 0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1053">
@@ -38106,10 +38041,9 @@
         <v>1245</v>
       </c>
       <c r="I1053">
-        <f>IF(J1053&lt;&gt;"", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J1053" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1054">
@@ -38137,10 +38071,9 @@
         <v>1245</v>
       </c>
       <c r="I1054">
-        <f>IF(J1054&lt;&gt;"", 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J1054" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1055">
@@ -38168,11 +38101,11 @@
         <v>1249</v>
       </c>
       <c r="I1055">
-        <f>IF(J1055&lt;&gt;"", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J1055" s="4" t="s">
-        <v>1640</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J1055" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
@@ -38201,11 +38134,11 @@
         <v>1249</v>
       </c>
       <c r="I1056">
-        <f>IF(J1056&lt;&gt;"", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J1056" s="4" t="s">
-        <v>1640</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
@@ -38234,11 +38167,11 @@
         <v>1249</v>
       </c>
       <c r="I1057">
-        <f>IF(J1057&lt;&gt;"", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J1057" s="4" t="s">
-        <v>1640</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J1057" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
@@ -38267,11 +38200,11 @@
         <v>1249</v>
       </c>
       <c r="I1058">
-        <f t="shared" ref="I1058:I1120" si="8">IF(J1058&lt;&gt;"", 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="J1058" s="4" t="s">
-        <v>1640</v>
+        <f t="shared" ref="I1058:I1120" si="9">IF(J1058&lt;&gt;"", 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J1058" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
@@ -38300,11 +38233,11 @@
         <v>1253</v>
       </c>
       <c r="I1059">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1059" s="4" t="s">
-        <v>1628</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1059" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
@@ -38333,11 +38266,11 @@
         <v>1253</v>
       </c>
       <c r="I1060">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1060" s="4" t="s">
-        <v>1628</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1060" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
@@ -38366,11 +38299,11 @@
         <v>1253</v>
       </c>
       <c r="I1061">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1061" s="4" t="s">
-        <v>1628</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1061" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
@@ -38399,11 +38332,11 @@
         <v>1253</v>
       </c>
       <c r="I1062">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1062" s="4" t="s">
-        <v>1628</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1062" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
@@ -38432,11 +38365,11 @@
         <v>1253</v>
       </c>
       <c r="I1063">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1063" s="4" t="s">
-        <v>1628</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1063" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
@@ -38465,11 +38398,11 @@
         <v>1261</v>
       </c>
       <c r="I1064">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1064" s="4" t="s">
-        <v>1629</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1064" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
@@ -38498,11 +38431,11 @@
         <v>1261</v>
       </c>
       <c r="I1065">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1065" s="4" t="s">
-        <v>1629</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1065" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
@@ -38531,11 +38464,11 @@
         <v>1261</v>
       </c>
       <c r="I1066">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1066" s="4" t="s">
-        <v>1629</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1066" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
@@ -38564,11 +38497,11 @@
         <v>1261</v>
       </c>
       <c r="I1067">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1067" s="4" t="s">
-        <v>1629</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1067" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
@@ -38597,11 +38530,11 @@
         <v>1261</v>
       </c>
       <c r="I1068">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1068" s="4" t="s">
-        <v>1629</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1068" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
@@ -38630,11 +38563,11 @@
         <v>6.9895833333333338E-2</v>
       </c>
       <c r="I1069">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1069" s="4" t="s">
-        <v>1649</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1069" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
@@ -38663,11 +38596,11 @@
         <v>6.9895833333333338E-2</v>
       </c>
       <c r="I1070">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1070" s="4" t="s">
-        <v>1649</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1070" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
@@ -38696,11 +38629,11 @@
         <v>6.9895833333333338E-2</v>
       </c>
       <c r="I1071">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1071" s="4" t="s">
-        <v>1649</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1071" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
@@ -38729,11 +38662,11 @@
         <v>6.9895833333333338E-2</v>
       </c>
       <c r="I1072">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1072" s="4" t="s">
-        <v>1649</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1072" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
@@ -38762,11 +38695,11 @@
         <v>6.9895833333333338E-2</v>
       </c>
       <c r="I1073">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1073" s="4" t="s">
-        <v>1649</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1073" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.2">
@@ -38795,11 +38728,11 @@
         <v>0.11156250000000001</v>
       </c>
       <c r="I1074">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1074" s="4" t="s">
-        <v>1650</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1074" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
@@ -38828,11 +38761,11 @@
         <v>0.11156250000000001</v>
       </c>
       <c r="I1075">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1075" s="4" t="s">
-        <v>1650</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1075" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -38861,11 +38794,11 @@
         <v>0.11156250000000001</v>
       </c>
       <c r="I1076">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1076" s="4" t="s">
-        <v>1650</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1076" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -38894,11 +38827,11 @@
         <v>0.11156250000000001</v>
       </c>
       <c r="I1077">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1077" s="4" t="s">
-        <v>1650</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1077" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -38927,11 +38860,11 @@
         <v>0.15322916666666667</v>
       </c>
       <c r="I1078">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1078" s="4" t="s">
-        <v>1651</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1078" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -38960,11 +38893,11 @@
         <v>0.15322916666666667</v>
       </c>
       <c r="I1079">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1079" s="4" t="s">
-        <v>1651</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1079" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -38993,11 +38926,11 @@
         <v>0.15322916666666667</v>
       </c>
       <c r="I1080">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J1080" s="4" t="s">
-        <v>1651</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J1080" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -39026,7 +38959,7 @@
         <v>0.19489583333333335</v>
       </c>
       <c r="I1081">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39056,7 +38989,7 @@
         <v>0.19489583333333335</v>
       </c>
       <c r="I1082">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39086,7 +39019,7 @@
         <v>0.19489583333333335</v>
       </c>
       <c r="I1083">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39116,7 +39049,7 @@
         <v>0.19489583333333335</v>
       </c>
       <c r="I1084">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39146,7 +39079,7 @@
         <v>0.19489583333333335</v>
       </c>
       <c r="I1085">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39176,11 +39109,11 @@
         <v>0.23656250000000001</v>
       </c>
       <c r="I1086">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1086" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -39209,11 +39142,11 @@
         <v>0.23656250000000001</v>
       </c>
       <c r="I1087">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1087" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -39242,11 +39175,11 @@
         <v>0.27822916666666669</v>
       </c>
       <c r="I1088">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1088" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -39275,11 +39208,11 @@
         <v>0.27822916666666669</v>
       </c>
       <c r="I1089">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1089" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -39308,11 +39241,11 @@
         <v>0.27822916666666669</v>
       </c>
       <c r="I1090">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1090" t="s">
-        <v>1652</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -39341,7 +39274,7 @@
         <v>0.31989583333333332</v>
       </c>
       <c r="I1091">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39371,7 +39304,7 @@
         <v>0.31989583333333332</v>
       </c>
       <c r="I1092">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39401,7 +39334,7 @@
         <v>0.31989583333333332</v>
       </c>
       <c r="I1093">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39431,7 +39364,7 @@
         <v>0.31989583333333332</v>
       </c>
       <c r="I1094">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39461,7 +39394,7 @@
         <v>0.36156250000000001</v>
       </c>
       <c r="I1095">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39491,7 +39424,7 @@
         <v>0.36156250000000001</v>
       </c>
       <c r="I1096">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39521,7 +39454,7 @@
         <v>0.36156250000000001</v>
       </c>
       <c r="I1097">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39551,7 +39484,7 @@
         <v>0.36156250000000001</v>
       </c>
       <c r="I1098">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39581,7 +39514,7 @@
         <v>0.36156250000000001</v>
       </c>
       <c r="I1099">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39611,7 +39544,7 @@
         <v>0.40322916666666669</v>
       </c>
       <c r="I1100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39641,7 +39574,7 @@
         <v>0.40322916666666669</v>
       </c>
       <c r="I1101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39671,7 +39604,7 @@
         <v>0.40322916666666669</v>
       </c>
       <c r="I1102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39705,7 +39638,7 @@
         <v>1</v>
       </c>
       <c r="J1103" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -39738,7 +39671,7 @@
         <v>1</v>
       </c>
       <c r="J1104" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -39767,11 +39700,11 @@
         <v>0.44489583333333332</v>
       </c>
       <c r="I1105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1105" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -39800,11 +39733,11 @@
         <v>0.44489583333333332</v>
       </c>
       <c r="I1106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1106" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -39833,11 +39766,11 @@
         <v>0.48656250000000001</v>
       </c>
       <c r="I1107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1107" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -39866,11 +39799,11 @@
         <v>0.48656250000000001</v>
       </c>
       <c r="I1108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1108" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -39899,11 +39832,11 @@
         <v>0.48656250000000001</v>
       </c>
       <c r="I1109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1109" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -39932,11 +39865,11 @@
         <v>0.48656250000000001</v>
       </c>
       <c r="I1110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1110" t="s">
-        <v>1654</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -39965,11 +39898,11 @@
         <v>0.52822916666666664</v>
       </c>
       <c r="I1111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1111" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -39998,11 +39931,11 @@
         <v>0.52822916666666664</v>
       </c>
       <c r="I1112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1112" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -40031,11 +39964,11 @@
         <v>0.52822916666666664</v>
       </c>
       <c r="I1113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1113" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -40064,11 +39997,11 @@
         <v>0.52822916666666664</v>
       </c>
       <c r="I1114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1114" t="s">
-        <v>1655</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -40097,7 +40030,7 @@
         <v>0.56989583333333338</v>
       </c>
       <c r="I1115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -40127,7 +40060,7 @@
         <v>0.56989583333333338</v>
       </c>
       <c r="I1116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -40157,7 +40090,7 @@
         <v>0.61156250000000001</v>
       </c>
       <c r="I1117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -40187,7 +40120,7 @@
         <v>0.61156250000000001</v>
       </c>
       <c r="I1118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -40217,7 +40150,7 @@
         <v>0.61156250000000001</v>
       </c>
       <c r="I1119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -40247,11 +40180,11 @@
         <v>0.65322916666666664</v>
       </c>
       <c r="I1120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J1120" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -40280,11 +40213,11 @@
         <v>0.65322916666666664</v>
       </c>
       <c r="I1121">
-        <f t="shared" ref="I1121:I1184" si="9">IF(J1121&lt;&gt;"", 1, 0)</f>
+        <f t="shared" ref="I1121:I1184" si="10">IF(J1121&lt;&gt;"", 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J1121" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -40313,11 +40246,11 @@
         <v>0.65322916666666664</v>
       </c>
       <c r="I1122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1122" t="s">
-        <v>1656</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -40346,11 +40279,11 @@
         <v>0.69489583333333327</v>
       </c>
       <c r="I1123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1123" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -40379,11 +40312,11 @@
         <v>0.7365624999999999</v>
       </c>
       <c r="I1124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1124" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
@@ -40412,11 +40345,11 @@
         <v>0.7365624999999999</v>
       </c>
       <c r="I1125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1125" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.2">
@@ -40445,11 +40378,11 @@
         <v>0.7365624999999999</v>
       </c>
       <c r="I1126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1126" t="s">
-        <v>1657</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.2">
@@ -40478,11 +40411,11 @@
         <v>0.77822916666666664</v>
       </c>
       <c r="I1127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1127" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.2">
@@ -40511,11 +40444,11 @@
         <v>0.77822916666666664</v>
       </c>
       <c r="I1128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1128" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.2">
@@ -40544,11 +40477,11 @@
         <v>0.77822916666666664</v>
       </c>
       <c r="I1129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1129" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.2">
@@ -40577,11 +40510,11 @@
         <v>0.77822916666666664</v>
       </c>
       <c r="I1130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1130" t="s">
-        <v>1644</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.2">
@@ -40610,11 +40543,11 @@
         <v>0.81989583333333327</v>
       </c>
       <c r="I1131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1131" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.2">
@@ -40643,11 +40576,11 @@
         <v>0.81989583333333327</v>
       </c>
       <c r="I1132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1132" t="s">
-        <v>1645</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.2">
@@ -40676,11 +40609,11 @@
         <v>0.8615624999999999</v>
       </c>
       <c r="I1133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1133" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.2">
@@ -40709,11 +40642,11 @@
         <v>0.8615624999999999</v>
       </c>
       <c r="I1134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1134" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.2">
@@ -40742,11 +40675,11 @@
         <v>0.8615624999999999</v>
       </c>
       <c r="I1135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1135" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.2">
@@ -40775,11 +40708,11 @@
         <v>0.8615624999999999</v>
       </c>
       <c r="I1136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1136" t="s">
-        <v>1658</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.2">
@@ -40808,11 +40741,11 @@
         <v>0.90322916666666664</v>
       </c>
       <c r="I1137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1137" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.2">
@@ -40841,11 +40774,11 @@
         <v>0.90322916666666664</v>
       </c>
       <c r="I1138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1138" t="s">
-        <v>1646</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.2">
@@ -40874,11 +40807,11 @@
         <v>0.94489583333333327</v>
       </c>
       <c r="I1139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1139" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.2">
@@ -40907,11 +40840,11 @@
         <v>0.94489583333333327</v>
       </c>
       <c r="I1140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1140" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.2">
@@ -40940,11 +40873,11 @@
         <v>0.94489583333333327</v>
       </c>
       <c r="I1141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1141" t="s">
-        <v>1647</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.2">
@@ -40973,11 +40906,11 @@
         <v>0.94489583333333327</v>
       </c>
       <c r="I1142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1142" t="s">
-        <v>1648</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.2">
@@ -41006,14 +40939,14 @@
         <v>0.94489583333333327</v>
       </c>
       <c r="I1143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1143" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1144">
         <v>1</v>
       </c>
@@ -41039,14 +40972,14 @@
         <v>7.0601851851851846E-2</v>
       </c>
       <c r="I1144">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1144" s="3" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1144" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1145">
         <v>1</v>
       </c>
@@ -41072,14 +41005,14 @@
         <v>7.0601851851851846E-2</v>
       </c>
       <c r="I1145">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1145" s="3" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1145" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1146">
         <v>1</v>
       </c>
@@ -41105,14 +41038,14 @@
         <v>7.0601851851851846E-2</v>
       </c>
       <c r="I1146">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1146" s="3" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1146" s="4" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1147">
         <v>1</v>
       </c>
@@ -41138,11 +41071,11 @@
         <v>7.0601851851851846E-2</v>
       </c>
       <c r="I1147">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1147" s="3" t="s">
-        <v>1659</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1147" s="4" t="s">
+        <v>1725</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.2">
@@ -41171,7 +41104,7 @@
         <v>0.11226851851851853</v>
       </c>
       <c r="I1148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41201,7 +41134,7 @@
         <v>0.11226851851851853</v>
       </c>
       <c r="I1149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41231,7 +41164,7 @@
         <v>0.11226851851851853</v>
       </c>
       <c r="I1150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41261,7 +41194,7 @@
         <v>0.11226851851851853</v>
       </c>
       <c r="I1151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41291,7 +41224,7 @@
         <v>0.1539351851851852</v>
       </c>
       <c r="I1152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41321,7 +41254,7 @@
         <v>0.1539351851851852</v>
       </c>
       <c r="I1153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41351,11 +41284,11 @@
         <v>0.1539351851851852</v>
       </c>
       <c r="I1154">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1155">
         <v>4</v>
       </c>
@@ -41381,14 +41314,14 @@
         <v>0.19560185185185186</v>
       </c>
       <c r="I1155">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1155" s="3" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1155" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1156">
         <v>4</v>
       </c>
@@ -41414,11 +41347,11 @@
         <v>0.19560185185185186</v>
       </c>
       <c r="I1156">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1156" s="3" t="s">
-        <v>1660</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1156" s="4" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.2">
@@ -41447,11 +41380,11 @@
         <v>0.23726851851851852</v>
       </c>
       <c r="I1157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1157" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.2">
@@ -41480,11 +41413,11 @@
         <v>0.23726851851851852</v>
       </c>
       <c r="I1158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1158" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.2">
@@ -41513,11 +41446,11 @@
         <v>0.23726851851851852</v>
       </c>
       <c r="I1159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1159" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.2">
@@ -41546,7 +41479,7 @@
         <v>0.27893518518518517</v>
       </c>
       <c r="I1160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41576,7 +41509,7 @@
         <v>0.27893518518518517</v>
       </c>
       <c r="I1161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41606,7 +41539,7 @@
         <v>0.27893518518518517</v>
       </c>
       <c r="I1162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41636,11 +41569,11 @@
         <v>0.32060185185185186</v>
       </c>
       <c r="I1163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1163" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.2">
@@ -41669,11 +41602,11 @@
         <v>0.32060185185185186</v>
       </c>
       <c r="I1164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1164" t="s">
-        <v>1662</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1165" spans="1:10" x14ac:dyDescent="0.2">
@@ -41702,11 +41635,11 @@
         <v>0.36226851851851855</v>
       </c>
       <c r="I1165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1165" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.2">
@@ -41735,11 +41668,11 @@
         <v>0.36226851851851855</v>
       </c>
       <c r="I1166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1166" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.2">
@@ -41768,11 +41701,11 @@
         <v>0.36226851851851855</v>
       </c>
       <c r="I1167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1167" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1168" spans="1:10" x14ac:dyDescent="0.2">
@@ -41801,11 +41734,11 @@
         <v>0.36226851851851855</v>
       </c>
       <c r="I1168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J1168" t="s">
-        <v>1663</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.2">
@@ -41834,7 +41767,7 @@
         <v>0.40393518518518517</v>
       </c>
       <c r="I1169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41864,7 +41797,7 @@
         <v>0.40393518518518517</v>
       </c>
       <c r="I1170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -41894,11 +41827,11 @@
         <v>0.40393518518518517</v>
       </c>
       <c r="I1171">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1172">
         <v>10</v>
       </c>
@@ -41924,14 +41857,14 @@
         <v>0.44560185185185186</v>
       </c>
       <c r="I1172">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1172" s="3" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1172" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1173">
         <v>10</v>
       </c>
@@ -41957,14 +41890,14 @@
         <v>0.44560185185185186</v>
       </c>
       <c r="I1173">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1173" s="3" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1173" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1174">
         <v>10</v>
       </c>
@@ -41990,14 +41923,14 @@
         <v>0.44560185185185186</v>
       </c>
       <c r="I1174">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1174" s="3" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1174" s="4" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1175">
         <v>11</v>
       </c>
@@ -42023,14 +41956,14 @@
         <v>0.48726851851851855</v>
       </c>
       <c r="I1175">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1175" s="3" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1175" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1176">
         <v>11</v>
       </c>
@@ -42056,14 +41989,14 @@
         <v>0.48726851851851855</v>
       </c>
       <c r="I1176">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1176" s="3" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1176" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1177">
         <v>11</v>
       </c>
@@ -42089,14 +42022,14 @@
         <v>0.48726851851851855</v>
       </c>
       <c r="I1177">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1177" s="3" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1177" s="2" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1178">
         <v>11</v>
       </c>
@@ -42122,11 +42055,11 @@
         <v>0.48726851851851855</v>
       </c>
       <c r="I1178">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J1178" s="3" t="s">
-        <v>1665</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J1178" s="2" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.2">
@@ -42155,7 +42088,7 @@
         <v>0.52893518518518523</v>
       </c>
       <c r="I1179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42185,7 +42118,7 @@
         <v>0.52893518518518523</v>
       </c>
       <c r="I1180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42215,7 +42148,7 @@
         <v>0.52893518518518523</v>
       </c>
       <c r="I1181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42245,7 +42178,7 @@
         <v>0.52893518518518523</v>
       </c>
       <c r="I1182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42275,7 +42208,7 @@
         <v>0.52893518518518523</v>
       </c>
       <c r="I1183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42305,7 +42238,7 @@
         <v>0.57060185185185186</v>
       </c>
       <c r="I1184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -42335,7 +42268,7 @@
         <v>0.57060185185185186</v>
       </c>
       <c r="I1185">
-        <f t="shared" ref="I1185:I1248" si="10">IF(J1185&lt;&gt;"", 1, 0)</f>
+        <f t="shared" ref="I1185:I1248" si="11">IF(J1185&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -42365,7 +42298,7 @@
         <v>0.57060185185185186</v>
       </c>
       <c r="I1186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42395,7 +42328,7 @@
         <v>0.57060185185185186</v>
       </c>
       <c r="I1187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42425,11 +42358,11 @@
         <v>0.61226851851851849</v>
       </c>
       <c r="I1188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J1188" t="s">
-        <v>1666</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1189" spans="1:10" x14ac:dyDescent="0.2">
@@ -42458,11 +42391,11 @@
         <v>0.61226851851851849</v>
       </c>
       <c r="I1189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J1189" t="s">
-        <v>1666</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1190" spans="1:10" x14ac:dyDescent="0.2">
@@ -42491,14 +42424,14 @@
         <v>0.61226851851851849</v>
       </c>
       <c r="I1190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J1190" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1191">
         <v>15</v>
       </c>
@@ -42524,14 +42457,14 @@
         <v>0.65393518518518523</v>
       </c>
       <c r="I1191">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1191" s="3" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1191" s="2" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1192">
         <v>15</v>
       </c>
@@ -42557,14 +42490,14 @@
         <v>0.65393518518518523</v>
       </c>
       <c r="I1192">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1192" s="3" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1192" s="2" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1193">
         <v>15</v>
       </c>
@@ -42590,11 +42523,11 @@
         <v>0.65393518518518523</v>
       </c>
       <c r="I1193">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1193" s="3" t="s">
-        <v>1669</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1193" s="2" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="1194" spans="1:10" x14ac:dyDescent="0.2">
@@ -42623,11 +42556,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1194">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1194" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1195" spans="1:10" x14ac:dyDescent="0.2">
@@ -42656,11 +42589,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1195">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1195" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.2">
@@ -42689,11 +42622,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1196">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1196" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.2">
@@ -42722,11 +42655,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1197">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1197" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1198" spans="1:10" x14ac:dyDescent="0.2">
@@ -42755,11 +42688,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1198">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1198" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.2">
@@ -42788,11 +42721,11 @@
         <v>0.69560185185185175</v>
       </c>
       <c r="I1199">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1199" s="4" t="s">
-        <v>1670</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="1200" spans="1:10" x14ac:dyDescent="0.2">
@@ -42821,7 +42754,7 @@
         <v>0.73726851851851849</v>
       </c>
       <c r="I1200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42851,7 +42784,7 @@
         <v>0.73726851851851849</v>
       </c>
       <c r="I1201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42881,7 +42814,7 @@
         <v>0.73726851851851849</v>
       </c>
       <c r="I1202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -42911,11 +42844,11 @@
         <v>0.73726851851851849</v>
       </c>
       <c r="I1203">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1204">
         <v>18</v>
       </c>
@@ -42941,14 +42874,14 @@
         <v>0.77893518518518512</v>
       </c>
       <c r="I1204">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1204" s="3" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1204" s="2" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1205">
         <v>19</v>
       </c>
@@ -42974,14 +42907,14 @@
         <v>0.82060185185185175</v>
       </c>
       <c r="I1205">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1205" s="3" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1205" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1206">
         <v>19</v>
       </c>
@@ -43007,14 +42940,14 @@
         <v>0.82060185185185175</v>
       </c>
       <c r="I1206">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1206" s="3" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1206" s="4" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1207">
         <v>20</v>
       </c>
@@ -43040,14 +42973,14 @@
         <v>0.86226851851851849</v>
       </c>
       <c r="I1207">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1207" s="3" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1207" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1208">
         <v>20</v>
       </c>
@@ -43073,14 +43006,14 @@
         <v>0.86226851851851849</v>
       </c>
       <c r="I1208">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1208" s="3" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1208" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1209">
         <v>20</v>
       </c>
@@ -43106,14 +43039,14 @@
         <v>0.86226851851851849</v>
       </c>
       <c r="I1209">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1209" s="3" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1209" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1210">
         <v>20</v>
       </c>
@@ -43139,14 +43072,14 @@
         <v>0.86226851851851849</v>
       </c>
       <c r="I1210">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1210" s="3" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1210" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1211">
         <v>20</v>
       </c>
@@ -43172,14 +43105,14 @@
         <v>0.86226851851851849</v>
       </c>
       <c r="I1211">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1211" s="3" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1211" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1212">
         <v>21</v>
       </c>
@@ -43205,14 +43138,14 @@
         <v>0.90393518518518512</v>
       </c>
       <c r="I1212">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1212" s="3" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1212" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1213">
         <v>21</v>
       </c>
@@ -43238,14 +43171,14 @@
         <v>0.90393518518518512</v>
       </c>
       <c r="I1213">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1213" s="3" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1213" s="4" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1214">
         <v>22</v>
       </c>
@@ -43271,14 +43204,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1214">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1214" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1214" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1215">
         <v>22</v>
       </c>
@@ -43304,14 +43237,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1215">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1215" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1215" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1216">
         <v>22</v>
       </c>
@@ -43337,14 +43270,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1216">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1216" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1216" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1217">
         <v>22</v>
       </c>
@@ -43370,14 +43303,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1217">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1217" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1217" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1218">
         <v>22</v>
       </c>
@@ -43403,14 +43336,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1218">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1218" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1218" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1219">
         <v>22</v>
       </c>
@@ -43436,14 +43369,14 @@
         <v>0.94560185185185175</v>
       </c>
       <c r="I1219">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1219" s="3" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1219" s="4" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1220">
         <v>23</v>
       </c>
@@ -43469,14 +43402,14 @@
         <v>0.98726851851851849</v>
       </c>
       <c r="I1220">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1220" s="3" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1220" s="4" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1221">
         <v>24</v>
       </c>
@@ -43502,14 +43435,14 @@
         <v>1418</v>
       </c>
       <c r="I1221">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1221" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1221" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1222">
         <v>24</v>
       </c>
@@ -43535,14 +43468,14 @@
         <v>1418</v>
       </c>
       <c r="I1222">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1222" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1222" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1223">
         <v>24</v>
       </c>
@@ -43568,14 +43501,14 @@
         <v>1418</v>
       </c>
       <c r="I1223">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1223" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1223" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1224">
         <v>24</v>
       </c>
@@ -43601,14 +43534,14 @@
         <v>1418</v>
       </c>
       <c r="I1224">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1224" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1224" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1225">
         <v>24</v>
       </c>
@@ -43634,14 +43567,14 @@
         <v>1418</v>
       </c>
       <c r="I1225">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1225" s="3" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1225" s="4" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1226">
         <v>25</v>
       </c>
@@ -43667,14 +43600,14 @@
         <v>1424</v>
       </c>
       <c r="I1226">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1226" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1226" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1227">
         <v>25</v>
       </c>
@@ -43700,14 +43633,14 @@
         <v>1424</v>
       </c>
       <c r="I1227">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1227" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1227" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1228">
         <v>25</v>
       </c>
@@ -43733,14 +43666,14 @@
         <v>1424</v>
       </c>
       <c r="I1228">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1228" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1228" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1229">
         <v>25</v>
       </c>
@@ -43766,14 +43699,14 @@
         <v>1424</v>
       </c>
       <c r="I1229">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1229" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1229" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1230">
         <v>25</v>
       </c>
@@ -43799,14 +43732,14 @@
         <v>1424</v>
       </c>
       <c r="I1230">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1230" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1230" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1231">
         <v>25</v>
       </c>
@@ -43832,14 +43765,14 @@
         <v>1424</v>
       </c>
       <c r="I1231">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1231" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1231" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1232">
         <v>25</v>
       </c>
@@ -43865,14 +43798,14 @@
         <v>1424</v>
       </c>
       <c r="I1232">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1232" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1232" s="4" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1233">
         <v>26</v>
       </c>
@@ -43898,14 +43831,14 @@
         <v>1430</v>
       </c>
       <c r="I1233">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1233" s="3" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1233" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1234">
         <v>26</v>
       </c>
@@ -43931,14 +43864,14 @@
         <v>1430</v>
       </c>
       <c r="I1234">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1234" s="3" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1234" s="4" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1235">
         <v>26</v>
       </c>
@@ -43964,11 +43897,11 @@
         <v>1430</v>
       </c>
       <c r="I1235">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1235" s="3" t="s">
-        <v>1679</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1235" s="4" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="1236" spans="1:10" x14ac:dyDescent="0.2">
@@ -43997,11 +43930,11 @@
         <v>1433</v>
       </c>
       <c r="I1236">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1236" s="4" t="s">
-        <v>1680</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1236" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1237" spans="1:10" x14ac:dyDescent="0.2">
@@ -44030,11 +43963,11 @@
         <v>1433</v>
       </c>
       <c r="I1237">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1237" s="4" t="s">
-        <v>1680</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1237" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1238" spans="1:10" x14ac:dyDescent="0.2">
@@ -44063,11 +43996,11 @@
         <v>1433</v>
       </c>
       <c r="I1238">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1238" s="4" t="s">
-        <v>1680</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1239" spans="1:10" x14ac:dyDescent="0.2">
@@ -44096,11 +44029,11 @@
         <v>1433</v>
       </c>
       <c r="I1239">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1239" s="4" t="s">
-        <v>1680</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.2">
@@ -44129,14 +44062,14 @@
         <v>1433</v>
       </c>
       <c r="I1240">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1240" s="4" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1241">
         <v>1</v>
       </c>
@@ -44162,14 +44095,14 @@
         <v>7.1307870370370369E-2</v>
       </c>
       <c r="I1241">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1241" s="3" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1241" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1242">
         <v>1</v>
       </c>
@@ -44195,14 +44128,14 @@
         <v>7.1307870370370369E-2</v>
       </c>
       <c r="I1242">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1242" s="3" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1242" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1243">
         <v>1</v>
       </c>
@@ -44228,14 +44161,14 @@
         <v>7.1307870370370369E-2</v>
       </c>
       <c r="I1243">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1243" s="3" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1243" s="4" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1244">
         <v>2</v>
       </c>
@@ -44261,14 +44194,14 @@
         <v>0.11297453703703704</v>
       </c>
       <c r="I1244">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1244" s="3" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1244" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1245">
         <v>2</v>
       </c>
@@ -44294,14 +44227,14 @@
         <v>0.11297453703703704</v>
       </c>
       <c r="I1245">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1245" s="3" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1245" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1246">
         <v>2</v>
       </c>
@@ -44327,14 +44260,14 @@
         <v>0.11297453703703704</v>
       </c>
       <c r="I1246">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1246" s="3" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1246" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1247">
         <v>2</v>
       </c>
@@ -44360,14 +44293,14 @@
         <v>0.11297453703703704</v>
       </c>
       <c r="I1247">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1247" s="3" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1247" s="2" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1248">
         <v>2</v>
       </c>
@@ -44393,11 +44326,11 @@
         <v>0.11297453703703704</v>
       </c>
       <c r="I1248">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J1248" s="3" t="s">
-        <v>1682</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J1248" s="2" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.2">
@@ -44426,7 +44359,7 @@
         <v>0.15464120370370371</v>
       </c>
       <c r="I1249">
-        <f t="shared" ref="I1249:I1310" si="11">IF(J1249&lt;&gt;"", 1, 0)</f>
+        <f t="shared" ref="I1249:I1310" si="12">IF(J1249&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -44456,7 +44389,7 @@
         <v>0.15464120370370371</v>
       </c>
       <c r="I1250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -44486,7 +44419,7 @@
         <v>0.15464120370370371</v>
       </c>
       <c r="I1251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -44516,7 +44449,7 @@
         <v>0.19630787037037037</v>
       </c>
       <c r="I1252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -44546,7 +44479,7 @@
         <v>0.19630787037037037</v>
       </c>
       <c r="I1253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -44576,7 +44509,7 @@
         <v>0.19630787037037037</v>
       </c>
       <c r="I1254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -44606,11 +44539,11 @@
         <v>0.19630787037037037</v>
       </c>
       <c r="I1255">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1256">
         <v>5</v>
       </c>
@@ -44636,14 +44569,14 @@
         <v>0.23797453703703705</v>
       </c>
       <c r="I1256">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1256" s="3" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1256" s="4" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1257">
         <v>5</v>
       </c>
@@ -44669,14 +44602,14 @@
         <v>0.23797453703703705</v>
       </c>
       <c r="I1257">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1257" s="3" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1257" s="4" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1258">
         <v>6</v>
       </c>
@@ -44702,14 +44635,14 @@
         <v>0.27964120370370371</v>
       </c>
       <c r="I1258">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1258" s="3" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1258" s="4" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1259">
         <v>6</v>
       </c>
@@ -44735,11 +44668,11 @@
         <v>0.27964120370370371</v>
       </c>
       <c r="I1259">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1259" s="3" t="s">
-        <v>1684</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1259" s="4" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.2">
@@ -44771,8 +44704,8 @@
         <f>IF(J1260&lt;&gt;"", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J1260" s="4" t="s">
-        <v>1685</v>
+      <c r="J1260" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="1261" spans="1:10" x14ac:dyDescent="0.2">
@@ -44804,8 +44737,8 @@
         <f>IF(J1261&lt;&gt;"", 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="J1261" s="4" t="s">
-        <v>1685</v>
+      <c r="J1261" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="1262" spans="1:10" x14ac:dyDescent="0.2">
@@ -44834,11 +44767,11 @@
         <v>0.3213078703703704</v>
       </c>
       <c r="I1262">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1262" s="4" t="s">
-        <v>1685</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="1263" spans="1:10" x14ac:dyDescent="0.2">
@@ -44867,11 +44800,11 @@
         <v>0.3213078703703704</v>
       </c>
       <c r="I1263">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1263" s="4" t="s">
-        <v>1685</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="1264" spans="1:10" x14ac:dyDescent="0.2">
@@ -44900,11 +44833,11 @@
         <v>0.36297453703703703</v>
       </c>
       <c r="I1264">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1264" s="4" t="s">
-        <v>1686</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.2">
@@ -44933,11 +44866,11 @@
         <v>0.36297453703703703</v>
       </c>
       <c r="I1265">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1265" s="4" t="s">
-        <v>1686</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.2">
@@ -44966,11 +44899,11 @@
         <v>0.36297453703703703</v>
       </c>
       <c r="I1266">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1266" s="4" t="s">
-        <v>1686</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1267" spans="1:10" x14ac:dyDescent="0.2">
@@ -44999,11 +44932,11 @@
         <v>0.36297453703703703</v>
       </c>
       <c r="I1267">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1267" s="4" t="s">
-        <v>1686</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.2">
@@ -45032,11 +44965,11 @@
         <v>0.40464120370370371</v>
       </c>
       <c r="I1268">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1268" s="4" t="s">
-        <v>1687</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="1269" spans="1:10" x14ac:dyDescent="0.2">
@@ -45065,11 +44998,11 @@
         <v>0.40464120370370371</v>
       </c>
       <c r="I1269">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1269" s="4" t="s">
-        <v>1687</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1269" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.2">
@@ -45098,11 +45031,11 @@
         <v>0.40464120370370371</v>
       </c>
       <c r="I1270">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1270" s="4" t="s">
-        <v>1687</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1270" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.2">
@@ -45131,10 +45064,9 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="I1271">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J1271" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1272">
@@ -45162,10 +45094,9 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="I1272">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J1272" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1273">
@@ -45193,10 +45124,9 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="I1273">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J1273" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1274">
@@ -45224,10 +45154,9 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="I1274">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J1274" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1275">
@@ -45255,12 +45184,11 @@
         <v>0.4463078703703704</v>
       </c>
       <c r="I1275">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J1275" s="4"/>
-    </row>
-    <row r="1276" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1276">
         <v>11</v>
       </c>
@@ -45286,14 +45214,14 @@
         <v>0.48797453703703703</v>
       </c>
       <c r="I1276">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1276" s="3" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1276" s="4" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1277">
         <v>11</v>
       </c>
@@ -45319,14 +45247,14 @@
         <v>0.48797453703703703</v>
       </c>
       <c r="I1277">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1277" s="3" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1277" s="4" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1278">
         <v>11</v>
       </c>
@@ -45352,14 +45280,14 @@
         <v>0.48797453703703703</v>
       </c>
       <c r="I1278">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1278" s="3" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1278" s="4" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1279">
         <v>11</v>
       </c>
@@ -45385,11 +45313,11 @@
         <v>0.48797453703703703</v>
       </c>
       <c r="I1279">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1279" s="3" t="s">
-        <v>1688</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1279" s="4" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="1280" spans="1:10" x14ac:dyDescent="0.2">
@@ -45418,7 +45346,7 @@
         <v>0.52964120370370371</v>
       </c>
       <c r="I1280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -45448,7 +45376,7 @@
         <v>0.52964120370370371</v>
       </c>
       <c r="I1281">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -45478,11 +45406,11 @@
         <v>0.52964120370370371</v>
       </c>
       <c r="I1282">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1283">
         <v>13</v>
       </c>
@@ -45508,14 +45436,14 @@
         <v>0.57130787037037034</v>
       </c>
       <c r="I1283">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1283" s="3" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1283" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1284">
         <v>13</v>
       </c>
@@ -45541,14 +45469,14 @@
         <v>0.57130787037037034</v>
       </c>
       <c r="I1284">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1284" s="3" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1284" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1285">
         <v>13</v>
       </c>
@@ -45574,14 +45502,14 @@
         <v>0.57130787037037034</v>
       </c>
       <c r="I1285">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1285" s="3" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1285" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1286">
         <v>13</v>
       </c>
@@ -45607,14 +45535,14 @@
         <v>0.57130787037037034</v>
       </c>
       <c r="I1286">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1286" s="3" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1286" s="4" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1287">
         <v>14</v>
       </c>
@@ -45640,14 +45568,14 @@
         <v>0.61297453703703708</v>
       </c>
       <c r="I1287">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1287" s="3" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1287" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1288">
         <v>14</v>
       </c>
@@ -45673,14 +45601,14 @@
         <v>0.61297453703703708</v>
       </c>
       <c r="I1288">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1288" s="3" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1288" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1289">
         <v>14</v>
       </c>
@@ -45706,14 +45634,14 @@
         <v>0.61297453703703708</v>
       </c>
       <c r="I1289">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1289" s="3" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1289" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1290">
         <v>14</v>
       </c>
@@ -45739,14 +45667,14 @@
         <v>0.61297453703703708</v>
       </c>
       <c r="I1290">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1290" s="3" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1290" s="4" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1291">
         <v>15</v>
       </c>
@@ -45772,14 +45700,14 @@
         <v>0.65464120370370371</v>
       </c>
       <c r="I1291">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1291" s="3" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1291" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1292">
         <v>15</v>
       </c>
@@ -45805,14 +45733,14 @@
         <v>0.65464120370370371</v>
       </c>
       <c r="I1292">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1292" s="3" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1292" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1293">
         <v>15</v>
       </c>
@@ -45838,14 +45766,14 @@
         <v>0.65464120370370371</v>
       </c>
       <c r="I1293">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1293" s="3" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1293" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1294">
         <v>15</v>
       </c>
@@ -45871,14 +45799,14 @@
         <v>0.65464120370370371</v>
       </c>
       <c r="I1294">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1294" s="3" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1294" s="4" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1295">
         <v>15</v>
       </c>
@@ -45904,11 +45832,11 @@
         <v>0.65464120370370371</v>
       </c>
       <c r="I1295">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1295" s="3" t="s">
-        <v>1691</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1295" s="4" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="1296" spans="1:10" x14ac:dyDescent="0.2">
@@ -45937,11 +45865,11 @@
         <v>0.69630787037037034</v>
       </c>
       <c r="I1296">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1296" s="4" t="s">
-        <v>1692</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1296" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="1297" spans="1:10" x14ac:dyDescent="0.2">
@@ -45970,11 +45898,11 @@
         <v>0.69630787037037034</v>
       </c>
       <c r="I1297">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1297" s="4" t="s">
-        <v>1692</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1297" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.2">
@@ -46003,11 +45931,11 @@
         <v>0.69630787037037034</v>
       </c>
       <c r="I1298">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1298" s="4" t="s">
-        <v>1692</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1298" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.2">
@@ -46036,11 +45964,11 @@
         <v>0.73797453703703697</v>
       </c>
       <c r="I1299">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1299" s="4" t="s">
-        <v>1693</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1299" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1300" spans="1:10" x14ac:dyDescent="0.2">
@@ -46069,11 +45997,11 @@
         <v>0.73797453703703697</v>
       </c>
       <c r="I1300">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1300" s="4" t="s">
-        <v>1693</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1300" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.2">
@@ -46102,11 +46030,11 @@
         <v>0.73797453703703697</v>
       </c>
       <c r="I1301">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1301" s="4" t="s">
-        <v>1693</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1301" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.2">
@@ -46135,11 +46063,11 @@
         <v>0.73797453703703697</v>
       </c>
       <c r="I1302">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1302" s="4" t="s">
-        <v>1693</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.2">
@@ -46168,11 +46096,11 @@
         <v>0.73797453703703697</v>
       </c>
       <c r="I1303">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1303" s="4" t="s">
-        <v>1693</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1303" t="s">
+        <v>1649</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.2">
@@ -46204,7 +46132,6 @@
         <f>IF(J1304&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J1304" s="4"/>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1305">
@@ -46235,7 +46162,6 @@
         <f>IF(J1305&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J1305" s="4"/>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1306">
@@ -46266,7 +46192,6 @@
         <f>IF(J1306&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J1306" s="4"/>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1307">
@@ -46297,9 +46222,8 @@
         <f>IF(J1307&lt;&gt;"", 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="J1307" s="4"/>
-    </row>
-    <row r="1308" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1308">
         <v>19</v>
       </c>
@@ -46325,14 +46249,14 @@
         <v>0.82130787037037034</v>
       </c>
       <c r="I1308">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1308" s="3" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1308" s="4" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1309">
         <v>19</v>
       </c>
@@ -46358,14 +46282,14 @@
         <v>0.82130787037037034</v>
       </c>
       <c r="I1309">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1309" s="3" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1309" s="4" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1310">
         <v>19</v>
       </c>
@@ -46391,11 +46315,11 @@
         <v>0.82130787037037034</v>
       </c>
       <c r="I1310">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J1310" s="3" t="s">
-        <v>1694</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J1310" s="4" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.2">
@@ -46428,7 +46352,7 @@
         <v>1</v>
       </c>
       <c r="J1311" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1312" spans="1:10" x14ac:dyDescent="0.2">
@@ -46461,7 +46385,7 @@
         <v>1</v>
       </c>
       <c r="J1312" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1313" spans="1:10" x14ac:dyDescent="0.2">
@@ -46494,7 +46418,7 @@
         <v>1</v>
       </c>
       <c r="J1313" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1314" spans="1:10" x14ac:dyDescent="0.2">
@@ -46527,7 +46451,7 @@
         <v>1</v>
       </c>
       <c r="J1314" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1315" spans="1:10" x14ac:dyDescent="0.2">
@@ -46556,11 +46480,11 @@
         <v>0.86297453703703697</v>
       </c>
       <c r="I1315">
-        <f t="shared" ref="I1315:I1332" si="12">IF(J1315&lt;&gt;"", 1, 0)</f>
+        <f t="shared" ref="I1315:I1332" si="13">IF(J1315&lt;&gt;"", 1, 0)</f>
         <v>1</v>
       </c>
       <c r="J1315" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.2">
@@ -46589,11 +46513,11 @@
         <v>0.86297453703703697</v>
       </c>
       <c r="I1316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1316" t="s">
-        <v>1695</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1317" spans="1:10" x14ac:dyDescent="0.2">
@@ -46622,7 +46546,7 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -46652,7 +46576,7 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -46682,7 +46606,7 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -46712,7 +46636,7 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -46742,7 +46666,7 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -46772,11 +46696,11 @@
         <v>0.9046412037037036</v>
       </c>
       <c r="I1322">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1323">
         <v>22</v>
       </c>
@@ -46802,14 +46726,14 @@
         <v>0.94630787037037034</v>
       </c>
       <c r="I1323">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J1323" s="3" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J1323" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1324">
         <v>22</v>
       </c>
@@ -46835,14 +46759,14 @@
         <v>0.94630787037037034</v>
       </c>
       <c r="I1324">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J1324" s="3" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J1324" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1325">
         <v>22</v>
       </c>
@@ -46868,14 +46792,14 @@
         <v>0.94630787037037034</v>
       </c>
       <c r="I1325">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J1325" s="3" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J1325" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1326">
         <v>22</v>
       </c>
@@ -46901,14 +46825,14 @@
         <v>0.94630787037037034</v>
       </c>
       <c r="I1326">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J1326" s="3" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J1326" s="4" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1327">
         <v>22</v>
       </c>
@@ -46934,11 +46858,11 @@
         <v>0.94630787037037034</v>
       </c>
       <c r="I1327">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J1327" s="3" t="s">
-        <v>1696</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J1327" s="4" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="1328" spans="1:10" x14ac:dyDescent="0.2">
@@ -46967,11 +46891,11 @@
         <v>0.98797453703703697</v>
       </c>
       <c r="I1328">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1328" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.2">
@@ -47000,11 +46924,11 @@
         <v>0.98797453703703697</v>
       </c>
       <c r="I1329">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1329" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.2">
@@ -47033,11 +46957,11 @@
         <v>0.98797453703703697</v>
       </c>
       <c r="I1330">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1330" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.2">
@@ -47066,11 +46990,11 @@
         <v>0.98797453703703697</v>
       </c>
       <c r="I1331">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1331" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.2">
@@ -47099,11 +47023,11 @@
         <v>0.98797453703703697</v>
       </c>
       <c r="I1332">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J1332" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -47131,7 +47055,7 @@
         <v>1518</v>
       </c>
       <c r="H1" t="s">
-        <v>1727</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
@@ -47871,7 +47795,7 @@
       </c>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="3" t="s">
         <v>412</v>
       </c>
       <c r="H94">
